--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/projects/makiniummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4306B65C-4A82-6140-92DE-FF70AE7A88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC80FD1-2951-F346-B04C-8C555AF03F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="600" windowWidth="28160" windowHeight="15520" activeTab="2" xr2:uid="{1FB83C4E-46C7-EA41-9E59-2FA027662986}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10714" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10714" uniqueCount="313">
   <si>
     <t>b本通り店</t>
     <rPh sb="1" eb="3">
@@ -1031,6 +1031,10 @@
   <si>
     <t>'21/Sh /D Summer</t>
   </si>
+  <si>
+    <t>公演タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1609,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3233,6 +3237,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4331,9 +4338,9 @@
   <dimension ref="A1:Y244"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V7" sqref="V7"/>
-      <selection pane="bottomLeft" activeCell="F169" sqref="F169"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="18"/>
@@ -17847,9 +17854,9 @@
   <dimension ref="A1:Y244"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X2" sqref="X2"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167:G181"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="18"/>
@@ -18016,8 +18023,8 @@
         <v>20</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="F4" s="29" t="s">
-        <v>21</v>
+      <c r="F4" s="541" t="s">
+        <v>312</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>22</v>
@@ -18107,9 +18114,13 @@
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
+      <c r="T5" s="36">
+        <v>0</v>
+      </c>
       <c r="U5" s="36"/>
-      <c r="V5" s="37"/>
+      <c r="V5" s="37">
+        <v>0</v>
+      </c>
       <c r="W5" s="38">
         <v>0</v>
       </c>
@@ -18152,9 +18163,13 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="T6" s="36">
+        <v>0</v>
+      </c>
       <c r="U6" s="41"/>
-      <c r="V6" s="42"/>
+      <c r="V6" s="37">
+        <v>0</v>
+      </c>
       <c r="W6" s="43">
         <v>0</v>
       </c>
@@ -18197,9 +18212,13 @@
       <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
       <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="T7" s="36">
+        <v>0</v>
+      </c>
       <c r="U7" s="46"/>
-      <c r="V7" s="47"/>
+      <c r="V7" s="37">
+        <v>0</v>
+      </c>
       <c r="W7" s="48">
         <v>0</v>
       </c>
@@ -18242,9 +18261,13 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
+      <c r="T8" s="36">
+        <v>0</v>
+      </c>
       <c r="U8" s="41"/>
-      <c r="V8" s="42"/>
+      <c r="V8" s="37">
+        <v>0</v>
+      </c>
       <c r="W8" s="43">
         <v>0</v>
       </c>
@@ -18287,9 +18310,13 @@
       <c r="Q9" s="46"/>
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
+      <c r="T9" s="36">
+        <v>0</v>
+      </c>
       <c r="U9" s="46"/>
-      <c r="V9" s="47"/>
+      <c r="V9" s="37">
+        <v>0</v>
+      </c>
       <c r="W9" s="48">
         <v>0</v>
       </c>
@@ -18332,9 +18359,13 @@
       <c r="Q10" s="36"/>
       <c r="R10" s="36"/>
       <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
+      <c r="T10" s="36">
+        <v>0</v>
+      </c>
       <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
+      <c r="V10" s="37">
+        <v>0</v>
+      </c>
       <c r="W10" s="38">
         <v>0</v>
       </c>
@@ -18377,9 +18408,13 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
+      <c r="T11" s="36">
+        <v>0</v>
+      </c>
       <c r="U11" s="41"/>
-      <c r="V11" s="42"/>
+      <c r="V11" s="37">
+        <v>0</v>
+      </c>
       <c r="W11" s="43">
         <v>0</v>
       </c>
@@ -18422,9 +18457,13 @@
       <c r="Q12" s="46"/>
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
+      <c r="T12" s="36">
+        <v>0</v>
+      </c>
       <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
+      <c r="V12" s="37">
+        <v>0</v>
+      </c>
       <c r="W12" s="48">
         <v>0</v>
       </c>
@@ -18467,9 +18506,13 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="36"/>
       <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
+      <c r="T13" s="36">
+        <v>0</v>
+      </c>
       <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
+      <c r="V13" s="37">
+        <v>0</v>
+      </c>
       <c r="W13" s="38">
         <v>0</v>
       </c>
@@ -18512,9 +18555,13 @@
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
+      <c r="T14" s="36">
+        <v>0</v>
+      </c>
       <c r="U14" s="41"/>
-      <c r="V14" s="42"/>
+      <c r="V14" s="37">
+        <v>0</v>
+      </c>
       <c r="W14" s="43">
         <v>0</v>
       </c>
@@ -18557,9 +18604,13 @@
       <c r="Q15" s="46"/>
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
+      <c r="T15" s="36">
+        <v>0</v>
+      </c>
       <c r="U15" s="46"/>
-      <c r="V15" s="47"/>
+      <c r="V15" s="37">
+        <v>0</v>
+      </c>
       <c r="W15" s="48">
         <v>0</v>
       </c>
@@ -18602,9 +18653,13 @@
       <c r="Q16" s="36"/>
       <c r="R16" s="36"/>
       <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
+      <c r="T16" s="36">
+        <v>0</v>
+      </c>
       <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
+      <c r="V16" s="37">
+        <v>0</v>
+      </c>
       <c r="W16" s="38">
         <v>0</v>
       </c>
@@ -18647,9 +18702,13 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
+      <c r="T17" s="36">
+        <v>0</v>
+      </c>
       <c r="U17" s="41"/>
-      <c r="V17" s="42"/>
+      <c r="V17" s="37">
+        <v>0</v>
+      </c>
       <c r="W17" s="43">
         <v>0</v>
       </c>
@@ -18692,9 +18751,13 @@
       <c r="Q18" s="85"/>
       <c r="R18" s="85"/>
       <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
+      <c r="T18" s="36">
+        <v>0</v>
+      </c>
       <c r="U18" s="85"/>
-      <c r="V18" s="53"/>
+      <c r="V18" s="37">
+        <v>0</v>
+      </c>
       <c r="W18" s="54">
         <v>0</v>
       </c>
@@ -18737,9 +18800,13 @@
       <c r="Q19" s="46"/>
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
+      <c r="T19" s="36">
+        <v>0</v>
+      </c>
       <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
+      <c r="V19" s="37">
+        <v>0</v>
+      </c>
       <c r="W19" s="48">
         <v>0</v>
       </c>
@@ -18782,9 +18849,13 @@
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
+      <c r="T20" s="36">
+        <v>0</v>
+      </c>
       <c r="U20" s="41"/>
-      <c r="V20" s="42"/>
+      <c r="V20" s="37">
+        <v>0</v>
+      </c>
       <c r="W20" s="43">
         <v>0</v>
       </c>
@@ -18827,9 +18898,13 @@
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
+      <c r="T21" s="36">
+        <v>0</v>
+      </c>
       <c r="U21" s="46"/>
-      <c r="V21" s="47"/>
+      <c r="V21" s="37">
+        <v>0</v>
+      </c>
       <c r="W21" s="48">
         <v>0</v>
       </c>
@@ -18872,9 +18947,13 @@
       <c r="Q22" s="36"/>
       <c r="R22" s="36"/>
       <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
+      <c r="T22" s="36">
+        <v>0</v>
+      </c>
       <c r="U22" s="36"/>
-      <c r="V22" s="37"/>
+      <c r="V22" s="37">
+        <v>0</v>
+      </c>
       <c r="W22" s="38">
         <v>0</v>
       </c>
@@ -18917,9 +18996,13 @@
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
       <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
+      <c r="T23" s="36">
+        <v>0</v>
+      </c>
       <c r="U23" s="41"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="37">
+        <v>0</v>
+      </c>
       <c r="W23" s="43">
         <v>0</v>
       </c>
@@ -18962,9 +19045,13 @@
       <c r="Q24" s="85"/>
       <c r="R24" s="85"/>
       <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
+      <c r="T24" s="36">
+        <v>0</v>
+      </c>
       <c r="U24" s="85"/>
-      <c r="V24" s="53"/>
+      <c r="V24" s="37">
+        <v>0</v>
+      </c>
       <c r="W24" s="54">
         <v>0</v>
       </c>
@@ -19007,9 +19094,13 @@
       <c r="Q25" s="46"/>
       <c r="R25" s="46"/>
       <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
+      <c r="T25" s="36">
+        <v>0</v>
+      </c>
       <c r="U25" s="46"/>
-      <c r="V25" s="47"/>
+      <c r="V25" s="37">
+        <v>0</v>
+      </c>
       <c r="W25" s="48">
         <v>0</v>
       </c>
@@ -19052,9 +19143,13 @@
       <c r="Q26" s="41"/>
       <c r="R26" s="41"/>
       <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
+      <c r="T26" s="36">
+        <v>0</v>
+      </c>
       <c r="U26" s="41"/>
-      <c r="V26" s="42"/>
+      <c r="V26" s="37">
+        <v>0</v>
+      </c>
       <c r="W26" s="43">
         <v>0</v>
       </c>
@@ -19097,9 +19192,13 @@
       <c r="Q27" s="46"/>
       <c r="R27" s="46"/>
       <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
+      <c r="T27" s="36">
+        <v>0</v>
+      </c>
       <c r="U27" s="46"/>
-      <c r="V27" s="47"/>
+      <c r="V27" s="37">
+        <v>0</v>
+      </c>
       <c r="W27" s="48">
         <v>0</v>
       </c>
@@ -19142,9 +19241,13 @@
       <c r="Q28" s="36"/>
       <c r="R28" s="36"/>
       <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
+      <c r="T28" s="36">
+        <v>0</v>
+      </c>
       <c r="U28" s="36"/>
-      <c r="V28" s="37"/>
+      <c r="V28" s="37">
+        <v>0</v>
+      </c>
       <c r="W28" s="38">
         <v>0</v>
       </c>
@@ -19207,11 +19310,11 @@
       <c r="S29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="T29" s="30">
+      <c r="T29" s="36">
         <v>0</v>
       </c>
       <c r="U29" s="36"/>
-      <c r="V29" s="56">
+      <c r="V29" s="37">
         <v>0</v>
       </c>
       <c r="W29" s="38">
@@ -19276,11 +19379,11 @@
       <c r="S30" s="58">
         <v>49.4</v>
       </c>
-      <c r="T30" s="58">
+      <c r="T30" s="36">
         <v>3</v>
       </c>
       <c r="U30" s="41"/>
-      <c r="V30" s="59">
+      <c r="V30" s="37">
         <v>3</v>
       </c>
       <c r="W30" s="58">
@@ -19345,11 +19448,11 @@
       <c r="S31" s="58">
         <v>68.3</v>
       </c>
-      <c r="T31" s="61">
+      <c r="T31" s="36">
         <v>3</v>
       </c>
       <c r="U31" s="46"/>
-      <c r="V31" s="62">
+      <c r="V31" s="37">
         <v>3</v>
       </c>
       <c r="W31" s="58">
@@ -19414,11 +19517,11 @@
       <c r="S32" s="58">
         <v>50.8</v>
       </c>
-      <c r="T32" s="30">
+      <c r="T32" s="36">
         <v>5</v>
       </c>
       <c r="U32" s="36"/>
-      <c r="V32" s="56">
+      <c r="V32" s="37">
         <v>5</v>
       </c>
       <c r="W32" s="58">
@@ -19483,11 +19586,11 @@
       <c r="S33" s="58">
         <v>66.3</v>
       </c>
-      <c r="T33" s="58">
+      <c r="T33" s="36">
         <v>9</v>
       </c>
       <c r="U33" s="41"/>
-      <c r="V33" s="59">
+      <c r="V33" s="37">
         <v>9</v>
       </c>
       <c r="W33" s="58">
@@ -19552,11 +19655,11 @@
       <c r="S34" s="58">
         <v>47</v>
       </c>
-      <c r="T34" s="61">
+      <c r="T34" s="36">
         <v>4</v>
       </c>
       <c r="U34" s="46"/>
-      <c r="V34" s="62">
+      <c r="V34" s="37">
         <v>4</v>
       </c>
       <c r="W34" s="58">
@@ -19621,11 +19724,11 @@
       <c r="S35" s="58">
         <v>71</v>
       </c>
-      <c r="T35" s="30">
+      <c r="T35" s="36">
         <v>7</v>
       </c>
       <c r="U35" s="36"/>
-      <c r="V35" s="56">
+      <c r="V35" s="37">
         <v>7</v>
       </c>
       <c r="W35" s="58">
@@ -19690,11 +19793,11 @@
       <c r="S36" s="58">
         <v>61.9</v>
       </c>
-      <c r="T36" s="58">
+      <c r="T36" s="36">
         <v>3</v>
       </c>
       <c r="U36" s="41"/>
-      <c r="V36" s="59">
+      <c r="V36" s="37">
         <v>3</v>
       </c>
       <c r="W36" s="58">
@@ -19759,11 +19862,11 @@
       <c r="S37" s="58">
         <v>47.5</v>
       </c>
-      <c r="T37" s="61">
+      <c r="T37" s="36">
         <v>4</v>
       </c>
       <c r="U37" s="46"/>
-      <c r="V37" s="62">
+      <c r="V37" s="37">
         <v>4</v>
       </c>
       <c r="W37" s="58">
@@ -19828,11 +19931,11 @@
       <c r="S38" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T38" s="30">
+      <c r="T38" s="36">
         <v>0</v>
       </c>
       <c r="U38" s="36"/>
-      <c r="V38" s="56">
+      <c r="V38" s="37">
         <v>0</v>
       </c>
       <c r="W38" s="58">
@@ -19897,11 +20000,11 @@
       <c r="S39" s="58">
         <v>69.3</v>
       </c>
-      <c r="T39" s="30">
+      <c r="T39" s="36">
         <v>5</v>
       </c>
       <c r="U39" s="36"/>
-      <c r="V39" s="56">
+      <c r="V39" s="37">
         <v>5</v>
       </c>
       <c r="W39" s="58">
@@ -19966,12 +20069,12 @@
       <c r="S40" s="58">
         <v>72.7</v>
       </c>
-      <c r="T40" s="63">
-        <v>3.7368421052631602</v>
+      <c r="T40" s="36">
+        <v>3.7</v>
       </c>
       <c r="U40" s="36"/>
-      <c r="V40" s="56">
-        <v>3.7368421052631602</v>
+      <c r="V40" s="37">
+        <v>3.7</v>
       </c>
       <c r="W40" s="58">
         <v>73.900000000000006</v>
@@ -20035,11 +20138,11 @@
       <c r="S41" s="58">
         <v>57.6</v>
       </c>
-      <c r="T41" s="64">
+      <c r="T41" s="36">
         <v>0</v>
       </c>
       <c r="U41" s="41"/>
-      <c r="V41" s="59">
+      <c r="V41" s="37">
         <v>0</v>
       </c>
       <c r="W41" s="58">
@@ -20104,12 +20207,12 @@
       <c r="S42" s="58">
         <v>87.4</v>
       </c>
-      <c r="T42" s="65">
-        <v>3.7368421052631602</v>
+      <c r="T42" s="36">
+        <v>3.7</v>
       </c>
       <c r="U42" s="46"/>
-      <c r="V42" s="62">
-        <v>3.7368421052631602</v>
+      <c r="V42" s="37">
+        <v>3.7</v>
       </c>
       <c r="W42" s="58">
         <v>88.6</v>
@@ -20173,11 +20276,11 @@
       <c r="S43" s="58">
         <v>60.6</v>
       </c>
-      <c r="T43" s="63">
+      <c r="T43" s="36">
         <v>0</v>
       </c>
       <c r="U43" s="36"/>
-      <c r="V43" s="56">
+      <c r="V43" s="37">
         <v>0</v>
       </c>
       <c r="W43" s="58">
@@ -20242,11 +20345,11 @@
       <c r="S44" s="58">
         <v>71</v>
       </c>
-      <c r="T44" s="63">
+      <c r="T44" s="36">
         <v>0</v>
       </c>
       <c r="U44" s="36"/>
-      <c r="V44" s="56">
+      <c r="V44" s="37">
         <v>0</v>
       </c>
       <c r="W44" s="58">
@@ -20311,12 +20414,12 @@
       <c r="S45" s="58">
         <v>89</v>
       </c>
-      <c r="T45" s="63">
-        <v>3.7368421052631602</v>
+      <c r="T45" s="36">
+        <v>3.7</v>
       </c>
       <c r="U45" s="36"/>
-      <c r="V45" s="56">
-        <v>3.7368421052631602</v>
+      <c r="V45" s="37">
+        <v>3.7</v>
       </c>
       <c r="W45" s="58">
         <v>90.2</v>
@@ -20380,12 +20483,12 @@
       <c r="S46" s="58">
         <v>101.6</v>
       </c>
-      <c r="T46" s="63">
-        <v>3.7368421052631602</v>
+      <c r="T46" s="36">
+        <v>3.7</v>
       </c>
       <c r="U46" s="36"/>
-      <c r="V46" s="56">
-        <v>3.7368421052631602</v>
+      <c r="V46" s="37">
+        <v>3.7</v>
       </c>
       <c r="W46" s="58">
         <v>102.8</v>
@@ -20449,12 +20552,12 @@
       <c r="S47" s="58">
         <v>90.1</v>
       </c>
-      <c r="T47" s="64">
-        <v>3.7368421052631602</v>
+      <c r="T47" s="36">
+        <v>3.7</v>
       </c>
       <c r="U47" s="41"/>
-      <c r="V47" s="59">
-        <v>3.7368421052631602</v>
+      <c r="V47" s="37">
+        <v>3.7</v>
       </c>
       <c r="W47" s="58">
         <v>91.3</v>
@@ -20518,12 +20621,12 @@
       <c r="S48" s="58">
         <v>81.5</v>
       </c>
-      <c r="T48" s="65">
-        <v>3.7368421052631602</v>
+      <c r="T48" s="36">
+        <v>3.7</v>
       </c>
       <c r="U48" s="46"/>
-      <c r="V48" s="62">
-        <v>3.7368421052631602</v>
+      <c r="V48" s="37">
+        <v>3.7</v>
       </c>
       <c r="W48" s="58">
         <v>82.7</v>
@@ -20587,11 +20690,11 @@
       <c r="S49" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T49" s="63">
+      <c r="T49" s="36">
         <v>0</v>
       </c>
       <c r="U49" s="36"/>
-      <c r="V49" s="56">
+      <c r="V49" s="37">
         <v>0</v>
       </c>
       <c r="W49" s="58">
@@ -20656,12 +20759,12 @@
       <c r="S50" s="58">
         <v>78.2</v>
       </c>
-      <c r="T50" s="63">
-        <v>3.7368421052631602</v>
+      <c r="T50" s="36">
+        <v>3.7</v>
       </c>
       <c r="U50" s="36"/>
-      <c r="V50" s="56">
-        <v>3.7368421052631602</v>
+      <c r="V50" s="37">
+        <v>3.7</v>
       </c>
       <c r="W50" s="58">
         <v>79.400000000000006</v>
@@ -20725,11 +20828,11 @@
       <c r="S51" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T51" s="63">
+      <c r="T51" s="36">
         <v>0</v>
       </c>
       <c r="U51" s="36"/>
-      <c r="V51" s="56">
+      <c r="V51" s="37">
         <v>0</v>
       </c>
       <c r="W51" s="58">
@@ -20794,11 +20897,11 @@
       <c r="S52" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T52" s="64">
+      <c r="T52" s="36">
         <v>0</v>
       </c>
       <c r="U52" s="41"/>
-      <c r="V52" s="59">
+      <c r="V52" s="37">
         <v>0</v>
       </c>
       <c r="W52" s="58">
@@ -20863,12 +20966,12 @@
       <c r="S53" s="58">
         <v>89.3</v>
       </c>
-      <c r="T53" s="65">
-        <v>3.7368421052631602</v>
+      <c r="T53" s="36">
+        <v>3.7</v>
       </c>
       <c r="U53" s="46"/>
-      <c r="V53" s="62">
-        <v>3.7368421052631602</v>
+      <c r="V53" s="37">
+        <v>3.7</v>
       </c>
       <c r="W53" s="58">
         <v>90.5</v>
@@ -20932,11 +21035,11 @@
       <c r="S54" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T54" s="63">
+      <c r="T54" s="36">
         <v>0</v>
       </c>
       <c r="U54" s="36"/>
-      <c r="V54" s="56">
+      <c r="V54" s="37">
         <v>0</v>
       </c>
       <c r="W54" s="58">
@@ -21001,12 +21104,12 @@
       <c r="S55" s="58">
         <v>95.7</v>
       </c>
-      <c r="T55" s="63">
-        <v>3.7368421052631602</v>
+      <c r="T55" s="36">
+        <v>3.7</v>
       </c>
       <c r="U55" s="36"/>
-      <c r="V55" s="56">
-        <v>3.7368421052631602</v>
+      <c r="V55" s="37">
+        <v>3.7</v>
       </c>
       <c r="W55" s="58">
         <v>96.9</v>
@@ -21070,11 +21173,11 @@
       <c r="S56" s="58">
         <v>45.3</v>
       </c>
-      <c r="T56" s="30">
+      <c r="T56" s="36">
         <v>0</v>
       </c>
       <c r="U56" s="36"/>
-      <c r="V56" s="56">
+      <c r="V56" s="37">
         <v>0</v>
       </c>
       <c r="W56" s="58">
@@ -21139,11 +21242,11 @@
       <c r="S57" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T57" s="30">
+      <c r="T57" s="36">
         <v>0</v>
       </c>
       <c r="U57" s="36"/>
-      <c r="V57" s="56">
+      <c r="V57" s="37">
         <v>0</v>
       </c>
       <c r="W57" s="58">
@@ -21208,11 +21311,11 @@
       <c r="S58" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T58" s="30">
+      <c r="T58" s="36">
         <v>0</v>
       </c>
       <c r="U58" s="36"/>
-      <c r="V58" s="56">
+      <c r="V58" s="37">
         <v>0</v>
       </c>
       <c r="W58" s="58">
@@ -21277,11 +21380,11 @@
       <c r="S59" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="36">
         <v>0</v>
       </c>
       <c r="U59" s="36"/>
-      <c r="V59" s="56">
+      <c r="V59" s="37">
         <v>0</v>
       </c>
       <c r="W59" s="58">
@@ -21346,11 +21449,11 @@
       <c r="S60" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T60" s="30">
+      <c r="T60" s="36">
         <v>6</v>
       </c>
       <c r="U60" s="36"/>
-      <c r="V60" s="56">
+      <c r="V60" s="37">
         <v>6</v>
       </c>
       <c r="W60" s="58">
@@ -21415,11 +21518,11 @@
       <c r="S61" s="58">
         <v>101.5</v>
       </c>
-      <c r="T61" s="30">
+      <c r="T61" s="36">
         <v>0</v>
       </c>
       <c r="U61" s="36"/>
-      <c r="V61" s="56">
+      <c r="V61" s="37">
         <v>0</v>
       </c>
       <c r="W61" s="58">
@@ -21484,18 +21587,18 @@
       <c r="S62" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="T62" s="58">
+      <c r="T62" s="36">
         <v>0</v>
       </c>
       <c r="U62" s="41"/>
-      <c r="V62" s="59">
+      <c r="V62" s="37">
         <v>0</v>
       </c>
       <c r="W62" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="28">
+    <row r="63" spans="1:23">
       <c r="A63" s="44">
         <v>59</v>
       </c>
@@ -21564,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="28">
+    <row r="64" spans="1:23">
       <c r="A64" s="34" t="s">
         <v>66</v>
       </c>
@@ -21629,7 +21732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="28">
+    <row r="65" spans="1:23">
       <c r="A65" s="34" t="s">
         <v>66</v>
       </c>
@@ -21694,7 +21797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="28">
+    <row r="66" spans="1:23">
       <c r="A66" s="34" t="s">
         <v>66</v>
       </c>
@@ -21759,7 +21862,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="28">
+    <row r="67" spans="1:23">
       <c r="A67" s="34" t="s">
         <v>66</v>
       </c>
@@ -21824,7 +21927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="28">
+    <row r="68" spans="1:23">
       <c r="A68" s="34" t="s">
         <v>66</v>
       </c>
@@ -21889,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="28">
+    <row r="69" spans="1:23">
       <c r="A69" s="34" t="s">
         <v>66</v>
       </c>
@@ -25995,7 +26098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="28">
+    <row r="131" spans="1:25">
       <c r="A131" s="44">
         <v>70</v>
       </c>
@@ -26072,7 +26175,7 @@
         <v>141.19999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="28">
+    <row r="132" spans="1:25">
       <c r="A132" s="34" t="s">
         <v>66</v>
       </c>
@@ -26139,7 +26242,7 @@
       <c r="X132" s="111"/>
       <c r="Y132" s="112"/>
     </row>
-    <row r="133" spans="1:25" ht="28">
+    <row r="133" spans="1:25">
       <c r="A133" s="34" t="s">
         <v>66</v>
       </c>
@@ -27241,7 +27344,7 @@
       <c r="X148" s="111"/>
       <c r="Y148" s="112"/>
     </row>
-    <row r="149" spans="1:25" ht="28">
+    <row r="149" spans="1:25">
       <c r="A149" s="34">
         <v>76</v>
       </c>
@@ -27314,7 +27417,7 @@
       <c r="X149" s="111"/>
       <c r="Y149" s="112"/>
     </row>
-    <row r="150" spans="1:25" ht="28">
+    <row r="150" spans="1:25">
       <c r="A150" s="34" t="s">
         <v>66</v>
       </c>
@@ -27381,7 +27484,7 @@
       <c r="X150" s="111"/>
       <c r="Y150" s="112"/>
     </row>
-    <row r="151" spans="1:25" ht="28">
+    <row r="151" spans="1:25">
       <c r="A151" s="34">
         <v>77</v>
       </c>
@@ -27454,7 +27557,7 @@
       <c r="X151" s="111"/>
       <c r="Y151" s="112"/>
     </row>
-    <row r="152" spans="1:25" ht="28">
+    <row r="152" spans="1:25">
       <c r="A152" s="34" t="s">
         <v>66</v>
       </c>
@@ -27523,7 +27626,7 @@
       <c r="X152" s="111"/>
       <c r="Y152" s="112"/>
     </row>
-    <row r="153" spans="1:25" ht="28">
+    <row r="153" spans="1:25">
       <c r="A153" s="34">
         <v>78</v>
       </c>
@@ -27596,7 +27699,7 @@
       <c r="X153" s="111"/>
       <c r="Y153" s="112"/>
     </row>
-    <row r="154" spans="1:25" ht="28">
+    <row r="154" spans="1:25">
       <c r="A154" s="34" t="s">
         <v>66</v>
       </c>
@@ -27665,7 +27768,7 @@
       <c r="X154" s="111"/>
       <c r="Y154" s="112"/>
     </row>
-    <row r="155" spans="1:25" ht="28">
+    <row r="155" spans="1:25">
       <c r="A155" s="34">
         <v>79</v>
       </c>
@@ -27807,7 +27910,7 @@
       <c r="X156" s="111"/>
       <c r="Y156" s="112"/>
     </row>
-    <row r="157" spans="1:25" ht="28">
+    <row r="157" spans="1:25">
       <c r="A157" s="34">
         <v>80</v>
       </c>
@@ -27880,7 +27983,7 @@
       <c r="X157" s="111"/>
       <c r="Y157" s="112"/>
     </row>
-    <row r="158" spans="1:25" ht="28">
+    <row r="158" spans="1:25">
       <c r="A158" s="34" t="s">
         <v>66</v>
       </c>
@@ -27949,7 +28052,7 @@
       <c r="X158" s="111"/>
       <c r="Y158" s="112"/>
     </row>
-    <row r="159" spans="1:25" ht="28">
+    <row r="159" spans="1:25">
       <c r="A159" s="34">
         <v>81</v>
       </c>
@@ -28022,7 +28125,7 @@
       <c r="X159" s="111"/>
       <c r="Y159" s="112"/>
     </row>
-    <row r="160" spans="1:25" ht="28">
+    <row r="160" spans="1:25">
       <c r="A160" s="34" t="s">
         <v>66</v>
       </c>
@@ -28164,7 +28267,7 @@
       <c r="X161" s="111"/>
       <c r="Y161" s="112"/>
     </row>
-    <row r="162" spans="1:25" ht="28">
+    <row r="162" spans="1:25">
       <c r="A162" s="34" t="s">
         <v>66</v>
       </c>
@@ -28233,7 +28336,7 @@
       <c r="X162" s="111"/>
       <c r="Y162" s="112"/>
     </row>
-    <row r="163" spans="1:25" ht="28">
+    <row r="163" spans="1:25">
       <c r="A163" s="34">
         <v>83</v>
       </c>
@@ -28306,7 +28409,7 @@
       <c r="X163" s="111"/>
       <c r="Y163" s="112"/>
     </row>
-    <row r="164" spans="1:25" ht="28">
+    <row r="164" spans="1:25">
       <c r="A164" s="34" t="s">
         <v>66</v>
       </c>
@@ -28509,7 +28612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="28">
+    <row r="167" spans="1:25">
       <c r="A167" s="34">
         <v>85</v>
       </c>
@@ -28580,7 +28683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="28">
+    <row r="168" spans="1:25">
       <c r="A168" s="34" t="s">
         <v>66</v>
       </c>
@@ -28647,7 +28750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="28">
+    <row r="169" spans="1:25">
       <c r="A169" s="34">
         <v>86</v>
       </c>
@@ -28718,7 +28821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="28">
+    <row r="170" spans="1:25">
       <c r="A170" s="34" t="s">
         <v>66</v>
       </c>
@@ -28785,7 +28888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="28">
+    <row r="171" spans="1:25">
       <c r="A171" s="34" t="s">
         <v>66</v>
       </c>
@@ -28856,7 +28959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="28">
+    <row r="172" spans="1:25">
       <c r="A172" s="34" t="s">
         <v>66</v>
       </c>
@@ -28923,7 +29026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="28">
+    <row r="173" spans="1:25">
       <c r="A173" s="34" t="s">
         <v>66</v>
       </c>
@@ -28994,7 +29097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="28">
+    <row r="174" spans="1:25">
       <c r="A174" s="34" t="s">
         <v>66</v>
       </c>
@@ -29061,7 +29164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="28">
+    <row r="175" spans="1:25">
       <c r="A175" s="34" t="s">
         <v>66</v>
       </c>
@@ -30899,47 +31002,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="T163:T165"/>
+    <mergeCell ref="T167:T168"/>
+    <mergeCell ref="T169:T170"/>
+    <mergeCell ref="T171:T172"/>
+    <mergeCell ref="T173:T174"/>
+    <mergeCell ref="T175:T176"/>
+    <mergeCell ref="T134:T144"/>
+    <mergeCell ref="T151:T152"/>
+    <mergeCell ref="T153:T154"/>
+    <mergeCell ref="T155:T156"/>
     <mergeCell ref="T157:T158"/>
-    <mergeCell ref="T155:T156"/>
-    <mergeCell ref="T153:T154"/>
-    <mergeCell ref="T173:T174"/>
+    <mergeCell ref="T159:T160"/>
+    <mergeCell ref="T78:T82"/>
+    <mergeCell ref="T84:T92"/>
+    <mergeCell ref="T94:T114"/>
+    <mergeCell ref="T115:T129"/>
+    <mergeCell ref="T131:T133"/>
     <mergeCell ref="U173:U174"/>
-    <mergeCell ref="T175:T176"/>
     <mergeCell ref="U175:U176"/>
-    <mergeCell ref="T167:T168"/>
     <mergeCell ref="U167:U168"/>
-    <mergeCell ref="T169:T170"/>
     <mergeCell ref="U169:U170"/>
-    <mergeCell ref="T171:T172"/>
     <mergeCell ref="U171:U172"/>
-    <mergeCell ref="T159:T160"/>
     <mergeCell ref="U159:U160"/>
+    <mergeCell ref="U161:U162"/>
+    <mergeCell ref="U163:U165"/>
     <mergeCell ref="T161:T162"/>
-    <mergeCell ref="U161:U162"/>
-    <mergeCell ref="T163:T165"/>
-    <mergeCell ref="U163:U165"/>
     <mergeCell ref="U151:U152"/>
     <mergeCell ref="U153:U154"/>
     <mergeCell ref="U155:U156"/>
     <mergeCell ref="U157:U158"/>
     <mergeCell ref="J131:J133"/>
-    <mergeCell ref="T131:T133"/>
     <mergeCell ref="U131:U133"/>
     <mergeCell ref="X131:X165"/>
     <mergeCell ref="Y131:Y165"/>
     <mergeCell ref="J134:J144"/>
-    <mergeCell ref="T134:T144"/>
     <mergeCell ref="U134:U144"/>
-    <mergeCell ref="T151:T152"/>
-    <mergeCell ref="T84:T92"/>
     <mergeCell ref="J94:J114"/>
-    <mergeCell ref="T94:T114"/>
-    <mergeCell ref="T115:T129"/>
     <mergeCell ref="U115:U129"/>
     <mergeCell ref="J63:J70"/>
     <mergeCell ref="J71:J75"/>
     <mergeCell ref="J78:J82"/>
-    <mergeCell ref="T78:T82"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morishita/projects/makiniummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC80FD1-2951-F346-B04C-8C555AF03F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6974758-980F-BA44-9233-3F86B62FC462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="600" windowWidth="28160" windowHeight="15520" activeTab="2" xr2:uid="{1FB83C4E-46C7-EA41-9E59-2FA027662986}"/>
+    <workbookView xWindow="-60" yWindow="500" windowWidth="28160" windowHeight="15520" activeTab="2" xr2:uid="{1FB83C4E-46C7-EA41-9E59-2FA027662986}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10714" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10706" uniqueCount="312">
   <si>
     <t>b本通り店</t>
     <rPh sb="1" eb="3">
@@ -883,14 +883,6 @@
     <t>スター</t>
   </si>
   <si>
-    <t>test0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライビュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ネンド </t>
@@ -1033,6 +1025,10 @@
   </si>
   <si>
     <t>公演タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブビューイング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1204,7 +1200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1592,6 +1588,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1613,7 +1646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="543">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3207,12 +3240,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3239,6 +3266,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3607,17 +3643,82 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="D2">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="D2">
+            <v>103</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="D2">
+            <v>104</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="D2">
+            <v>106</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="D2">
+            <v>107</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="D2">
+            <v>123</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="D2">
+            <v>128</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="D2">
+            <v>112</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="2">
+          <cell r="D2">
+            <v>121</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="2">
+          <cell r="D2">
+            <v>137</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13">
+        <row r="2">
+          <cell r="D2">
+            <v>101</v>
+          </cell>
+        </row>
         <row r="147">
           <cell r="Q147">
             <v>29.1666666666667</v>
@@ -3644,219 +3745,1491 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="D2">
+            <v>102</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="2">
+          <cell r="D2">
+            <v>108</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-      <sheetData sheetId="125"/>
-      <sheetData sheetId="126"/>
-      <sheetData sheetId="127"/>
-      <sheetData sheetId="128"/>
-      <sheetData sheetId="129"/>
-      <sheetData sheetId="130"/>
-      <sheetData sheetId="131"/>
-      <sheetData sheetId="132"/>
-      <sheetData sheetId="133"/>
-      <sheetData sheetId="134"/>
-      <sheetData sheetId="135"/>
-      <sheetData sheetId="136"/>
-      <sheetData sheetId="137"/>
-      <sheetData sheetId="138"/>
-      <sheetData sheetId="139"/>
-      <sheetData sheetId="140"/>
-      <sheetData sheetId="141"/>
-      <sheetData sheetId="142"/>
-      <sheetData sheetId="143"/>
-      <sheetData sheetId="144"/>
-      <sheetData sheetId="145"/>
-      <sheetData sheetId="146"/>
-      <sheetData sheetId="147"/>
-      <sheetData sheetId="148"/>
-      <sheetData sheetId="149"/>
-      <sheetData sheetId="150"/>
-      <sheetData sheetId="151"/>
-      <sheetData sheetId="152"/>
-      <sheetData sheetId="153"/>
-      <sheetData sheetId="154"/>
-      <sheetData sheetId="155"/>
-      <sheetData sheetId="156"/>
-      <sheetData sheetId="157"/>
-      <sheetData sheetId="158"/>
-      <sheetData sheetId="159"/>
-      <sheetData sheetId="160"/>
-      <sheetData sheetId="161"/>
-      <sheetData sheetId="162"/>
-      <sheetData sheetId="163"/>
-      <sheetData sheetId="164"/>
-      <sheetData sheetId="165"/>
-      <sheetData sheetId="166"/>
-      <sheetData sheetId="167"/>
-      <sheetData sheetId="168"/>
-      <sheetData sheetId="169"/>
-      <sheetData sheetId="170"/>
-      <sheetData sheetId="171"/>
-      <sheetData sheetId="172"/>
-      <sheetData sheetId="173"/>
-      <sheetData sheetId="174"/>
-      <sheetData sheetId="175"/>
-      <sheetData sheetId="176"/>
-      <sheetData sheetId="177"/>
-      <sheetData sheetId="178"/>
-      <sheetData sheetId="179"/>
-      <sheetData sheetId="180"/>
-      <sheetData sheetId="181"/>
-      <sheetData sheetId="182"/>
-      <sheetData sheetId="183"/>
-      <sheetData sheetId="184"/>
-      <sheetData sheetId="185"/>
-      <sheetData sheetId="186"/>
-      <sheetData sheetId="187"/>
-      <sheetData sheetId="188"/>
-      <sheetData sheetId="189"/>
-      <sheetData sheetId="190"/>
-      <sheetData sheetId="191"/>
-      <sheetData sheetId="192"/>
-      <sheetData sheetId="193"/>
-      <sheetData sheetId="194"/>
-      <sheetData sheetId="195"/>
-      <sheetData sheetId="196"/>
-      <sheetData sheetId="197"/>
-      <sheetData sheetId="198"/>
-      <sheetData sheetId="199"/>
-      <sheetData sheetId="200"/>
-      <sheetData sheetId="201"/>
-      <sheetData sheetId="202"/>
-      <sheetData sheetId="203"/>
-      <sheetData sheetId="204"/>
-      <sheetData sheetId="205"/>
-      <sheetData sheetId="206"/>
-      <sheetData sheetId="207"/>
-      <sheetData sheetId="208"/>
-      <sheetData sheetId="209"/>
-      <sheetData sheetId="210"/>
-      <sheetData sheetId="211"/>
-      <sheetData sheetId="212"/>
-      <sheetData sheetId="213"/>
-      <sheetData sheetId="214"/>
-      <sheetData sheetId="215"/>
-      <sheetData sheetId="216"/>
-      <sheetData sheetId="217"/>
-      <sheetData sheetId="218"/>
-      <sheetData sheetId="219"/>
-      <sheetData sheetId="220"/>
-      <sheetData sheetId="221"/>
-      <sheetData sheetId="222"/>
-      <sheetData sheetId="223"/>
-      <sheetData sheetId="224"/>
-      <sheetData sheetId="225"/>
-      <sheetData sheetId="226"/>
+      <sheetData sheetId="17">
+        <row r="2">
+          <cell r="D2">
+            <v>110</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18">
+        <row r="2">
+          <cell r="D2">
+            <v>117</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19">
+        <row r="2">
+          <cell r="D2">
+            <v>126</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="20">
+        <row r="2">
+          <cell r="D2">
+            <v>127</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="21">
+        <row r="2">
+          <cell r="D2">
+            <v>138</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22">
+        <row r="2">
+          <cell r="D2">
+            <v>144</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="2">
+          <cell r="D2">
+            <v>147</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="2">
+          <cell r="D2">
+            <v>132</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="2">
+          <cell r="D2">
+            <v>148</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="26">
+        <row r="2">
+          <cell r="D2">
+            <v>152</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
+        <row r="2">
+          <cell r="D2">
+            <v>157</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="2">
+          <cell r="D2">
+            <v>158</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29">
+        <row r="2">
+          <cell r="D2">
+            <v>159</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="D2">
+            <v>171</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31">
+        <row r="2">
+          <cell r="D2">
+            <v>174</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="32">
+        <row r="2">
+          <cell r="D2">
+            <v>162</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="33">
+        <row r="2">
+          <cell r="D2">
+            <v>164</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="34">
+        <row r="2">
+          <cell r="D2">
+            <v>175</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="35">
+        <row r="2">
+          <cell r="D2">
+            <v>172</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="36">
+        <row r="2">
+          <cell r="D2">
+            <v>177</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="37">
+        <row r="2">
+          <cell r="D2">
+            <v>178</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="38">
+        <row r="2">
+          <cell r="D2">
+            <v>179</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="39">
+        <row r="2">
+          <cell r="D2">
+            <v>180</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="40">
+        <row r="2">
+          <cell r="D2">
+            <v>181</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="41">
+        <row r="2">
+          <cell r="D2">
+            <v>182</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="42">
+        <row r="2">
+          <cell r="D2">
+            <v>184</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="43">
+        <row r="2">
+          <cell r="D2">
+            <v>185</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="44">
+        <row r="2">
+          <cell r="D2">
+            <v>183</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="45">
+        <row r="2">
+          <cell r="D2">
+            <v>186</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="46">
+        <row r="2">
+          <cell r="D2">
+            <v>187</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="47">
+        <row r="2">
+          <cell r="D2">
+            <v>188</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="48">
+        <row r="2">
+          <cell r="D2">
+            <v>189</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="49">
+        <row r="2">
+          <cell r="D2">
+            <v>190</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="50">
+        <row r="2">
+          <cell r="D2">
+            <v>191</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="51">
+        <row r="2">
+          <cell r="D2">
+            <v>192</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="52">
+        <row r="2">
+          <cell r="D2">
+            <v>193</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="53">
+        <row r="2">
+          <cell r="D2">
+            <v>194</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="54">
+        <row r="2">
+          <cell r="D2">
+            <v>1001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="55">
+        <row r="2">
+          <cell r="D2">
+            <v>1002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="56">
+        <row r="2">
+          <cell r="D2">
+            <v>1003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="57">
+        <row r="2">
+          <cell r="D2">
+            <v>1004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="58">
+        <row r="2">
+          <cell r="D2">
+            <v>1005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="59">
+        <row r="2">
+          <cell r="D2">
+            <v>1006</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="60">
+        <row r="2">
+          <cell r="D2">
+            <v>1007</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="61">
+        <row r="2">
+          <cell r="D2">
+            <v>1008</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="62">
+        <row r="2">
+          <cell r="D2">
+            <v>1009</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="63">
+        <row r="2">
+          <cell r="D2">
+            <v>1010</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="64">
+        <row r="2">
+          <cell r="D2">
+            <v>1011</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="65">
+        <row r="2">
+          <cell r="D2">
+            <v>1012</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="66">
+        <row r="2">
+          <cell r="D2">
+            <v>1013</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="67">
+        <row r="2">
+          <cell r="D2">
+            <v>1014</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="68">
+        <row r="2">
+          <cell r="D2">
+            <v>1015</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="69">
+        <row r="2">
+          <cell r="D2">
+            <v>1016</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="70">
+        <row r="2">
+          <cell r="D2">
+            <v>1017</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="71">
+        <row r="2">
+          <cell r="D2">
+            <v>1018</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="72">
+        <row r="2">
+          <cell r="D2">
+            <v>1019</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="73">
+        <row r="2">
+          <cell r="D2">
+            <v>1154</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="74">
+        <row r="2">
+          <cell r="D2">
+            <v>1020</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="75">
+        <row r="2">
+          <cell r="D2">
+            <v>1021</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="76">
+        <row r="2">
+          <cell r="D2">
+            <v>1022</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="77">
+        <row r="2">
+          <cell r="D2">
+            <v>1023</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="78">
+        <row r="2">
+          <cell r="D2">
+            <v>1024</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="79">
+        <row r="2">
+          <cell r="D2">
+            <v>1025</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="80">
+        <row r="2">
+          <cell r="D2">
+            <v>1026</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="81">
+        <row r="2">
+          <cell r="D2">
+            <v>1027</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="82">
+        <row r="2">
+          <cell r="D2">
+            <v>1028</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="83">
+        <row r="2">
+          <cell r="D2">
+            <v>1029</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="84">
+        <row r="2">
+          <cell r="D2">
+            <v>1030</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="85">
+        <row r="2">
+          <cell r="D2">
+            <v>1031</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="86">
+        <row r="2">
+          <cell r="D2">
+            <v>1032</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="87">
+        <row r="2">
+          <cell r="D2">
+            <v>1033</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="88">
+        <row r="2">
+          <cell r="D2">
+            <v>1034</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="89">
+        <row r="2">
+          <cell r="D2">
+            <v>1035</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="90">
+        <row r="2">
+          <cell r="D2">
+            <v>1036</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="91">
+        <row r="2">
+          <cell r="D2">
+            <v>1037</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="92">
+        <row r="2">
+          <cell r="D2">
+            <v>1038</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="93">
+        <row r="2">
+          <cell r="D2">
+            <v>1039</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="94">
+        <row r="2">
+          <cell r="D2">
+            <v>1040</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="95">
+        <row r="2">
+          <cell r="D2">
+            <v>1041</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="96">
+        <row r="2">
+          <cell r="D2">
+            <v>1042</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="97">
+        <row r="2">
+          <cell r="D2">
+            <v>1043</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="98">
+        <row r="2">
+          <cell r="D2">
+            <v>1044</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="99">
+        <row r="2">
+          <cell r="D2">
+            <v>1045</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="100">
+        <row r="2">
+          <cell r="D2">
+            <v>1046</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="101">
+        <row r="2">
+          <cell r="D2">
+            <v>1047</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="102">
+        <row r="2">
+          <cell r="D2">
+            <v>1048</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="103">
+        <row r="2">
+          <cell r="D2">
+            <v>1049</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="104">
+        <row r="2">
+          <cell r="D2">
+            <v>1050</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="105">
+        <row r="2">
+          <cell r="D2">
+            <v>1051</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="106">
+        <row r="2">
+          <cell r="D2">
+            <v>1052</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="107">
+        <row r="2">
+          <cell r="D2">
+            <v>1053</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="108">
+        <row r="2">
+          <cell r="D2">
+            <v>1054</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="109">
+        <row r="2">
+          <cell r="D2">
+            <v>1055</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="110">
+        <row r="2">
+          <cell r="D2">
+            <v>1056</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="111">
+        <row r="2">
+          <cell r="D2">
+            <v>1057</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="112">
+        <row r="2">
+          <cell r="D2">
+            <v>1058</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="113">
+        <row r="2">
+          <cell r="D2">
+            <v>1059</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="114">
+        <row r="2">
+          <cell r="D2">
+            <v>1060</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="115">
+        <row r="2">
+          <cell r="D2">
+            <v>1061</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="116">
+        <row r="2">
+          <cell r="D2">
+            <v>1062</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="117">
+        <row r="2">
+          <cell r="D2">
+            <v>1063</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="118">
+        <row r="2">
+          <cell r="D2">
+            <v>1064</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="119">
+        <row r="2">
+          <cell r="D2">
+            <v>1065</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="120">
+        <row r="2">
+          <cell r="D2">
+            <v>1066</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="121">
+        <row r="2">
+          <cell r="D2">
+            <v>1067</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="122">
+        <row r="2">
+          <cell r="D2">
+            <v>1068</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="123">
+        <row r="2">
+          <cell r="D2">
+            <v>99</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="124">
+        <row r="2">
+          <cell r="D2">
+            <v>1070</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="125">
+        <row r="2">
+          <cell r="D2">
+            <v>1071</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="126">
+        <row r="2">
+          <cell r="D2">
+            <v>1072</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="127">
+        <row r="2">
+          <cell r="D2">
+            <v>1073</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="128">
+        <row r="2">
+          <cell r="D2">
+            <v>1074</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="129">
+        <row r="2">
+          <cell r="D2">
+            <v>1075</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="130">
+        <row r="2">
+          <cell r="D2">
+            <v>1076</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="131">
+        <row r="2">
+          <cell r="D2">
+            <v>1077</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="132">
+        <row r="2">
+          <cell r="D2">
+            <v>1078</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="133">
+        <row r="2">
+          <cell r="D2">
+            <v>1079</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="134">
+        <row r="2">
+          <cell r="D2">
+            <v>1080</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="135">
+        <row r="2">
+          <cell r="D2">
+            <v>1081</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="136">
+        <row r="2">
+          <cell r="D2">
+            <v>1082</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="137">
+        <row r="2">
+          <cell r="D2">
+            <v>1083</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="138">
+        <row r="2">
+          <cell r="D2">
+            <v>1084</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="139">
+        <row r="2">
+          <cell r="D2">
+            <v>1085</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="140">
+        <row r="2">
+          <cell r="D2">
+            <v>1086</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="141">
+        <row r="2">
+          <cell r="D2">
+            <v>1087</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="142">
+        <row r="2">
+          <cell r="D2">
+            <v>1088</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="143">
+        <row r="2">
+          <cell r="D2">
+            <v>1089</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="144">
+        <row r="2">
+          <cell r="D2">
+            <v>1090</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="145">
+        <row r="2">
+          <cell r="D2">
+            <v>1091</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="146">
+        <row r="2">
+          <cell r="D2">
+            <v>1092</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="147">
+        <row r="2">
+          <cell r="D2">
+            <v>1093</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="148">
+        <row r="2">
+          <cell r="D2">
+            <v>1094</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="149">
+        <row r="2">
+          <cell r="D2">
+            <v>1095</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="150">
+        <row r="2">
+          <cell r="D2">
+            <v>1096</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="151">
+        <row r="2">
+          <cell r="D2">
+            <v>1097</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="152">
+        <row r="2">
+          <cell r="D2">
+            <v>1098</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="153">
+        <row r="2">
+          <cell r="D2">
+            <v>1099</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="154">
+        <row r="2">
+          <cell r="D2">
+            <v>1100</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="155">
+        <row r="2">
+          <cell r="D2">
+            <v>1101</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="156">
+        <row r="2">
+          <cell r="D2">
+            <v>1102</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="157">
+        <row r="2">
+          <cell r="D2">
+            <v>1103</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="158">
+        <row r="2">
+          <cell r="D2">
+            <v>1104</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="159">
+        <row r="2">
+          <cell r="D2">
+            <v>1105</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="160">
+        <row r="2">
+          <cell r="D2">
+            <v>1106</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="161">
+        <row r="2">
+          <cell r="D2">
+            <v>1107</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="162">
+        <row r="2">
+          <cell r="D2">
+            <v>1108</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="163">
+        <row r="2">
+          <cell r="D2">
+            <v>1109</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="164">
+        <row r="2">
+          <cell r="D2">
+            <v>1110</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="165">
+        <row r="2">
+          <cell r="D2">
+            <v>1111</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="166">
+        <row r="2">
+          <cell r="D2">
+            <v>1112</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="167">
+        <row r="2">
+          <cell r="D2">
+            <v>1113</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="168">
+        <row r="2">
+          <cell r="D2">
+            <v>1114</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="169">
+        <row r="2">
+          <cell r="D2">
+            <v>1115</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="170">
+        <row r="2">
+          <cell r="D2">
+            <v>1116</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="171">
+        <row r="2">
+          <cell r="D2">
+            <v>1117</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="172">
+        <row r="2">
+          <cell r="D2">
+            <v>1118</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="173">
+        <row r="2">
+          <cell r="D2">
+            <v>1119</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="174">
+        <row r="2">
+          <cell r="D2">
+            <v>1120</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="175">
+        <row r="2">
+          <cell r="D2">
+            <v>1122</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="176">
+        <row r="2">
+          <cell r="D2">
+            <v>1123</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="177">
+        <row r="2">
+          <cell r="D2">
+            <v>1124</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="178">
+        <row r="2">
+          <cell r="D2">
+            <v>1125</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="179">
+        <row r="2">
+          <cell r="D2">
+            <v>1126</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="180">
+        <row r="2">
+          <cell r="D2">
+            <v>1127</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="181">
+        <row r="2">
+          <cell r="D2">
+            <v>1128</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="182">
+        <row r="2">
+          <cell r="D2">
+            <v>1129</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="183">
+        <row r="2">
+          <cell r="D2">
+            <v>1130</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="184">
+        <row r="2">
+          <cell r="D2">
+            <v>1131</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="185">
+        <row r="2">
+          <cell r="D2">
+            <v>1132</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="186">
+        <row r="2">
+          <cell r="D2">
+            <v>1133</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="187">
+        <row r="2">
+          <cell r="D2">
+            <v>1134</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="188">
+        <row r="2">
+          <cell r="D2">
+            <v>1136</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="189">
+        <row r="2">
+          <cell r="D2">
+            <v>1138</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="190">
+        <row r="2">
+          <cell r="D2">
+            <v>1139</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="191">
+        <row r="2">
+          <cell r="D2">
+            <v>1140</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="192">
+        <row r="2">
+          <cell r="D2">
+            <v>1141</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="193">
+        <row r="2">
+          <cell r="D2">
+            <v>1142</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="194">
+        <row r="2">
+          <cell r="D2">
+            <v>1143</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="195">
+        <row r="2">
+          <cell r="D2">
+            <v>1145</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="196">
+        <row r="2">
+          <cell r="D2">
+            <v>1121</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="197">
+        <row r="2">
+          <cell r="D2">
+            <v>1135</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="198">
+        <row r="2">
+          <cell r="D2">
+            <v>1137</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="199">
+        <row r="2">
+          <cell r="D2">
+            <v>1146</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="200">
+        <row r="2">
+          <cell r="D2">
+            <v>1148</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="201">
+        <row r="2">
+          <cell r="D2">
+            <v>1149</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="202">
+        <row r="2">
+          <cell r="D2">
+            <v>1150</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="203">
+        <row r="2">
+          <cell r="D2">
+            <v>1151</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="204">
+        <row r="2">
+          <cell r="D2">
+            <v>1152</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="205">
+        <row r="2">
+          <cell r="D2">
+            <v>1153</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="206">
+        <row r="2">
+          <cell r="D2">
+            <v>105</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="207">
+        <row r="2">
+          <cell r="D2">
+            <v>113</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="208">
+        <row r="2">
+          <cell r="D2">
+            <v>115</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="209">
+        <row r="2">
+          <cell r="D2">
+            <v>118</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="210">
+        <row r="2">
+          <cell r="D2">
+            <v>120</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="211">
+        <row r="2">
+          <cell r="D2">
+            <v>124</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="212">
+        <row r="2">
+          <cell r="D2">
+            <v>129</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="213">
+        <row r="2">
+          <cell r="D2">
+            <v>133</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="214">
+        <row r="2">
+          <cell r="D2">
+            <v>140</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="215">
+        <row r="2">
+          <cell r="D2">
+            <v>145</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="216">
+        <row r="2">
+          <cell r="D2">
+            <v>150</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="217">
+        <row r="2">
+          <cell r="D2">
+            <v>151</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="218">
+        <row r="2">
+          <cell r="D2">
+            <v>155</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="219">
+        <row r="2">
+          <cell r="D2">
+            <v>156</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="220">
+        <row r="2">
+          <cell r="D2">
+            <v>161</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="221">
+        <row r="2">
+          <cell r="D2">
+            <v>165</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="222">
+        <row r="2">
+          <cell r="D2">
+            <v>166</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="223">
+        <row r="2">
+          <cell r="D2">
+            <v>168</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="224">
+        <row r="2">
+          <cell r="D2">
+            <v>170</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="225">
+        <row r="2">
+          <cell r="D2">
+            <v>173</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="226">
+        <row r="2">
+          <cell r="D2">
+            <v>176</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4174,22 +5547,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23" customHeight="1">
       <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
         <v>280</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>281</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>282</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>283</v>
-      </c>
-      <c r="E1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4197,10 +5570,10 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND('[1]101'!$Q$171,1)</f>
@@ -4219,10 +5592,10 @@
         <v>2020</v>
       </c>
       <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
         <v>286</v>
-      </c>
-      <c r="C3" t="s">
-        <v>288</v>
       </c>
       <c r="D3" s="1">
         <f>ROUND('[1]101'!$Q$164,1)</f>
@@ -4241,10 +5614,10 @@
         <v>2020</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D4" s="1">
         <f>ROUND('[1]101'!$Q$159,1)</f>
@@ -4340,7 +5713,7 @@
     <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="V7" sqref="V7"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="18"/>
@@ -14373,7 +15746,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G168" s="34" t="s">
         <v>263</v>
@@ -17856,7 +19229,7 @@
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X2" sqref="X2"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="18"/>
@@ -17893,17 +19266,15 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="19" thickBot="1">
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="531">
+      <c r="D2" s="128">
         <v>101</v>
       </c>
-      <c r="E2" s="531">
-        <v>101</v>
-      </c>
+      <c r="E2" s="128"/>
       <c r="F2" s="4" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>6</v>
@@ -17917,7 +19288,7 @@
       <c r="J2" s="12">
         <v>1.82</v>
       </c>
-      <c r="K2" s="538" t="s">
+      <c r="K2" s="536" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="13">
@@ -17958,7 +19329,7 @@
         <v>240.4</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="20" customHeight="1">
       <c r="A3" s="22"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -17969,42 +19340,26 @@
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="26"/>
-      <c r="K3" s="532" t="s">
+      <c r="K3" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="532" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="532" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="532" t="s">
-        <v>279</v>
-      </c>
-      <c r="O3" s="532" t="s">
-        <v>279</v>
-      </c>
-      <c r="P3" s="532" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q3" s="532" t="s">
+      <c r="L3" s="541"/>
+      <c r="M3" s="542"/>
+      <c r="N3" s="540" t="s">
+        <v>311</v>
+      </c>
+      <c r="O3" s="541"/>
+      <c r="P3" s="542"/>
+      <c r="Q3" s="540" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="532" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="532" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="532" t="s">
+      <c r="R3" s="541"/>
+      <c r="S3" s="542"/>
+      <c r="T3" s="540" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="532" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="532" t="s">
-        <v>15</v>
-      </c>
+      <c r="U3" s="541"/>
+      <c r="V3" s="542"/>
       <c r="W3" s="27" t="s">
         <v>16</v>
       </c>
@@ -18023,8 +19378,8 @@
         <v>20</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="F4" s="541" t="s">
-        <v>312</v>
+      <c r="F4" s="539" t="s">
+        <v>310</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>22</v>
@@ -18083,7 +19438,7 @@
       <c r="B5" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="533">
+      <c r="C5" s="531">
         <v>2000</v>
       </c>
       <c r="D5" s="34">
@@ -18132,7 +19487,7 @@
       <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="534">
+      <c r="C6" s="532">
         <v>2000</v>
       </c>
       <c r="D6" s="39">
@@ -18181,7 +19536,7 @@
       <c r="B7" s="44">
         <v>3</v>
       </c>
-      <c r="C7" s="535">
+      <c r="C7" s="533">
         <v>2001</v>
       </c>
       <c r="D7" s="44">
@@ -18230,7 +19585,7 @@
       <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="534">
+      <c r="C8" s="532">
         <v>2001</v>
       </c>
       <c r="D8" s="39">
@@ -18279,7 +19634,7 @@
       <c r="B9" s="44">
         <v>5</v>
       </c>
-      <c r="C9" s="535">
+      <c r="C9" s="533">
         <v>2002</v>
       </c>
       <c r="D9" s="44">
@@ -18328,7 +19683,7 @@
       <c r="B10" s="34">
         <v>6</v>
       </c>
-      <c r="C10" s="533">
+      <c r="C10" s="531">
         <v>2002</v>
       </c>
       <c r="D10" s="34">
@@ -18377,7 +19732,7 @@
       <c r="B11" s="39">
         <v>7</v>
       </c>
-      <c r="C11" s="534">
+      <c r="C11" s="532">
         <v>2002</v>
       </c>
       <c r="D11" s="39">
@@ -18426,7 +19781,7 @@
       <c r="B12" s="44">
         <v>8</v>
       </c>
-      <c r="C12" s="535">
+      <c r="C12" s="533">
         <v>2003</v>
       </c>
       <c r="D12" s="44">
@@ -18475,7 +19830,7 @@
       <c r="B13" s="34">
         <v>9</v>
       </c>
-      <c r="C13" s="533">
+      <c r="C13" s="531">
         <v>2003</v>
       </c>
       <c r="D13" s="34">
@@ -18524,7 +19879,7 @@
       <c r="B14" s="39">
         <v>10</v>
       </c>
-      <c r="C14" s="534">
+      <c r="C14" s="532">
         <v>2003</v>
       </c>
       <c r="D14" s="39">
@@ -18573,7 +19928,7 @@
       <c r="B15" s="44">
         <v>11</v>
       </c>
-      <c r="C15" s="535">
+      <c r="C15" s="533">
         <v>2004</v>
       </c>
       <c r="D15" s="44">
@@ -18622,7 +19977,7 @@
       <c r="B16" s="34">
         <v>12</v>
       </c>
-      <c r="C16" s="533">
+      <c r="C16" s="531">
         <v>2004</v>
       </c>
       <c r="D16" s="34">
@@ -18671,7 +20026,7 @@
       <c r="B17" s="39">
         <v>13</v>
       </c>
-      <c r="C17" s="534">
+      <c r="C17" s="532">
         <v>2004</v>
       </c>
       <c r="D17" s="39">
@@ -18769,7 +20124,7 @@
       <c r="B19" s="44">
         <v>15</v>
       </c>
-      <c r="C19" s="535">
+      <c r="C19" s="533">
         <v>2006</v>
       </c>
       <c r="D19" s="44">
@@ -18818,7 +20173,7 @@
       <c r="B20" s="39">
         <v>16</v>
       </c>
-      <c r="C20" s="534">
+      <c r="C20" s="532">
         <v>2006</v>
       </c>
       <c r="D20" s="39">
@@ -18867,7 +20222,7 @@
       <c r="B21" s="44">
         <v>17</v>
       </c>
-      <c r="C21" s="535">
+      <c r="C21" s="533">
         <v>2008</v>
       </c>
       <c r="D21" s="44">
@@ -18916,7 +20271,7 @@
       <c r="B22" s="34">
         <v>22</v>
       </c>
-      <c r="C22" s="533">
+      <c r="C22" s="531">
         <v>2008</v>
       </c>
       <c r="D22" s="34">
@@ -18965,7 +20320,7 @@
       <c r="B23" s="39">
         <v>23</v>
       </c>
-      <c r="C23" s="534">
+      <c r="C23" s="532">
         <v>2008</v>
       </c>
       <c r="D23" s="39">
@@ -19063,7 +20418,7 @@
       <c r="B25" s="44">
         <v>25</v>
       </c>
-      <c r="C25" s="535">
+      <c r="C25" s="533">
         <v>2010</v>
       </c>
       <c r="D25" s="44">
@@ -19112,7 +20467,7 @@
       <c r="B26" s="39">
         <v>26</v>
       </c>
-      <c r="C26" s="534">
+      <c r="C26" s="532">
         <v>2010</v>
       </c>
       <c r="D26" s="39">
@@ -19161,7 +20516,7 @@
       <c r="B27" s="44">
         <v>27</v>
       </c>
-      <c r="C27" s="535">
+      <c r="C27" s="533">
         <v>2011</v>
       </c>
       <c r="D27" s="44">
@@ -19210,7 +20565,7 @@
       <c r="B28" s="34">
         <v>28</v>
       </c>
-      <c r="C28" s="533">
+      <c r="C28" s="531">
         <v>2011</v>
       </c>
       <c r="D28" s="34">
@@ -19259,7 +20614,7 @@
       <c r="B29" s="34">
         <v>29</v>
       </c>
-      <c r="C29" s="533">
+      <c r="C29" s="531">
         <v>2011</v>
       </c>
       <c r="D29" s="34">
@@ -19328,7 +20683,7 @@
       <c r="B30" s="39">
         <v>30</v>
       </c>
-      <c r="C30" s="534">
+      <c r="C30" s="532">
         <v>2011</v>
       </c>
       <c r="D30" s="39">
@@ -19397,7 +20752,7 @@
       <c r="B31" s="44">
         <v>31</v>
       </c>
-      <c r="C31" s="535">
+      <c r="C31" s="533">
         <v>2012</v>
       </c>
       <c r="D31" s="44">
@@ -19466,7 +20821,7 @@
       <c r="B32" s="34">
         <v>32</v>
       </c>
-      <c r="C32" s="533">
+      <c r="C32" s="531">
         <v>2012</v>
       </c>
       <c r="D32" s="34">
@@ -19535,7 +20890,7 @@
       <c r="B33" s="39">
         <v>33</v>
       </c>
-      <c r="C33" s="534">
+      <c r="C33" s="532">
         <v>2012</v>
       </c>
       <c r="D33" s="39">
@@ -19604,7 +20959,7 @@
       <c r="B34" s="44">
         <v>34</v>
       </c>
-      <c r="C34" s="535">
+      <c r="C34" s="533">
         <v>2013</v>
       </c>
       <c r="D34" s="44">
@@ -19673,7 +21028,7 @@
       <c r="B35" s="34">
         <v>35</v>
       </c>
-      <c r="C35" s="533">
+      <c r="C35" s="531">
         <v>2013</v>
       </c>
       <c r="D35" s="34">
@@ -19742,7 +21097,7 @@
       <c r="B36" s="39">
         <v>36</v>
       </c>
-      <c r="C36" s="534">
+      <c r="C36" s="532">
         <v>2013</v>
       </c>
       <c r="D36" s="39">
@@ -19811,7 +21166,7 @@
       <c r="B37" s="44">
         <v>37</v>
       </c>
-      <c r="C37" s="535">
+      <c r="C37" s="533">
         <v>2014</v>
       </c>
       <c r="D37" s="44">
@@ -19880,7 +21235,7 @@
       <c r="B38" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="533">
+      <c r="C38" s="531">
         <v>2014</v>
       </c>
       <c r="D38" s="34">
@@ -19949,7 +21304,7 @@
       <c r="B39" s="34">
         <v>38</v>
       </c>
-      <c r="C39" s="533">
+      <c r="C39" s="531">
         <v>2014</v>
       </c>
       <c r="D39" s="34">
@@ -20018,7 +21373,7 @@
       <c r="B40" s="34">
         <v>39</v>
       </c>
-      <c r="C40" s="533">
+      <c r="C40" s="531">
         <v>2014</v>
       </c>
       <c r="D40" s="34">
@@ -20087,7 +21442,7 @@
       <c r="B41" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="534">
+      <c r="C41" s="532">
         <v>2014</v>
       </c>
       <c r="D41" s="39">
@@ -20156,7 +21511,7 @@
       <c r="B42" s="44">
         <v>40</v>
       </c>
-      <c r="C42" s="535">
+      <c r="C42" s="533">
         <v>2015</v>
       </c>
       <c r="D42" s="44">
@@ -20225,7 +21580,7 @@
       <c r="B43" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="533">
+      <c r="C43" s="531">
         <v>2015</v>
       </c>
       <c r="D43" s="34">
@@ -20294,7 +21649,7 @@
       <c r="B44" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="533">
+      <c r="C44" s="531">
         <v>2015</v>
       </c>
       <c r="D44" s="34">
@@ -20363,7 +21718,7 @@
       <c r="B45" s="34">
         <v>41</v>
       </c>
-      <c r="C45" s="533">
+      <c r="C45" s="531">
         <v>2015</v>
       </c>
       <c r="D45" s="34">
@@ -20432,7 +21787,7 @@
       <c r="B46" s="34">
         <v>42</v>
       </c>
-      <c r="C46" s="533">
+      <c r="C46" s="531">
         <v>2015</v>
       </c>
       <c r="D46" s="34">
@@ -20501,7 +21856,7 @@
       <c r="B47" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="534">
+      <c r="C47" s="532">
         <v>2015</v>
       </c>
       <c r="D47" s="39">
@@ -20570,7 +21925,7 @@
       <c r="B48" s="44">
         <v>43</v>
       </c>
-      <c r="C48" s="535">
+      <c r="C48" s="533">
         <v>2016</v>
       </c>
       <c r="D48" s="44">
@@ -20639,7 +21994,7 @@
       <c r="B49" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="533">
+      <c r="C49" s="531">
         <v>2016</v>
       </c>
       <c r="D49" s="34">
@@ -20708,7 +22063,7 @@
       <c r="B50" s="34">
         <v>44</v>
       </c>
-      <c r="C50" s="533">
+      <c r="C50" s="531">
         <v>2016</v>
       </c>
       <c r="D50" s="34">
@@ -20777,7 +22132,7 @@
       <c r="B51" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="533">
+      <c r="C51" s="531">
         <v>2016</v>
       </c>
       <c r="D51" s="34">
@@ -20846,7 +22201,7 @@
       <c r="B52" s="39">
         <v>45</v>
       </c>
-      <c r="C52" s="534">
+      <c r="C52" s="532">
         <v>2016</v>
       </c>
       <c r="D52" s="39">
@@ -20915,7 +22270,7 @@
       <c r="B53" s="44">
         <v>47</v>
       </c>
-      <c r="C53" s="535">
+      <c r="C53" s="533">
         <v>2017</v>
       </c>
       <c r="D53" s="44">
@@ -20984,7 +22339,7 @@
       <c r="B54" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="533">
+      <c r="C54" s="531">
         <v>2017</v>
       </c>
       <c r="D54" s="34">
@@ -21053,7 +22408,7 @@
       <c r="B55" s="34">
         <v>48</v>
       </c>
-      <c r="C55" s="533">
+      <c r="C55" s="531">
         <v>2017</v>
       </c>
       <c r="D55" s="34">
@@ -21122,7 +22477,7 @@
       <c r="B56" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="533">
+      <c r="C56" s="531">
         <v>2017</v>
       </c>
       <c r="D56" s="34">
@@ -21191,7 +22546,7 @@
       <c r="B57" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="533">
+      <c r="C57" s="531">
         <v>2017</v>
       </c>
       <c r="D57" s="34">
@@ -21260,7 +22615,7 @@
       <c r="B58" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="533">
+      <c r="C58" s="531">
         <v>2017</v>
       </c>
       <c r="D58" s="34">
@@ -21329,7 +22684,7 @@
       <c r="B59" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="533">
+      <c r="C59" s="531">
         <v>2017</v>
       </c>
       <c r="D59" s="34">
@@ -21398,7 +22753,7 @@
       <c r="B60" s="34">
         <v>49</v>
       </c>
-      <c r="C60" s="533">
+      <c r="C60" s="531">
         <v>2017</v>
       </c>
       <c r="D60" s="34">
@@ -21408,7 +22763,7 @@
         <v>80</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G60" s="34" t="s">
         <v>66</v>
@@ -21467,7 +22822,7 @@
       <c r="B61" s="34">
         <v>54</v>
       </c>
-      <c r="C61" s="533">
+      <c r="C61" s="531">
         <v>2017</v>
       </c>
       <c r="D61" s="34">
@@ -21536,7 +22891,7 @@
       <c r="B62" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="534">
+      <c r="C62" s="532">
         <v>2017</v>
       </c>
       <c r="D62" s="39">
@@ -21605,7 +22960,7 @@
       <c r="B63" s="44">
         <v>55</v>
       </c>
-      <c r="C63" s="535">
+      <c r="C63" s="533">
         <v>2018</v>
       </c>
       <c r="D63" s="44">
@@ -21615,7 +22970,7 @@
         <v>80</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G63" s="44" t="s">
         <v>131</v>
@@ -21674,7 +23029,7 @@
       <c r="B64" s="34">
         <v>56</v>
       </c>
-      <c r="C64" s="533">
+      <c r="C64" s="531">
         <v>2018</v>
       </c>
       <c r="D64" s="34">
@@ -21684,7 +23039,7 @@
         <v>80</v>
       </c>
       <c r="F64" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G64" s="34" t="s">
         <v>133</v>
@@ -21739,7 +23094,7 @@
       <c r="B65" s="34">
         <v>57</v>
       </c>
-      <c r="C65" s="533">
+      <c r="C65" s="531">
         <v>2018</v>
       </c>
       <c r="D65" s="34">
@@ -21749,7 +23104,7 @@
         <v>80</v>
       </c>
       <c r="F65" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G65" s="34" t="s">
         <v>135</v>
@@ -21804,7 +23159,7 @@
       <c r="B66" s="34">
         <v>58</v>
       </c>
-      <c r="C66" s="533">
+      <c r="C66" s="531">
         <v>2018</v>
       </c>
       <c r="D66" s="34">
@@ -21814,7 +23169,7 @@
         <v>80</v>
       </c>
       <c r="F66" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>137</v>
@@ -21869,7 +23224,7 @@
       <c r="B67" s="34">
         <v>59</v>
       </c>
-      <c r="C67" s="533">
+      <c r="C67" s="531">
         <v>2018</v>
       </c>
       <c r="D67" s="34">
@@ -21879,7 +23234,7 @@
         <v>80</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G67" s="34" t="s">
         <v>139</v>
@@ -21934,7 +23289,7 @@
       <c r="B68" s="34">
         <v>60</v>
       </c>
-      <c r="C68" s="533">
+      <c r="C68" s="531">
         <v>2018</v>
       </c>
       <c r="D68" s="34">
@@ -21944,7 +23299,7 @@
         <v>80</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G68" s="34" t="s">
         <v>141</v>
@@ -21999,7 +23354,7 @@
       <c r="B69" s="34">
         <v>61</v>
       </c>
-      <c r="C69" s="533">
+      <c r="C69" s="531">
         <v>2018</v>
       </c>
       <c r="D69" s="34">
@@ -22009,7 +23364,7 @@
         <v>80</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>142</v>
@@ -22064,7 +23419,7 @@
       <c r="B70" s="34">
         <v>62</v>
       </c>
-      <c r="C70" s="533">
+      <c r="C70" s="531">
         <v>2018</v>
       </c>
       <c r="D70" s="34">
@@ -22074,7 +23429,7 @@
         <v>80</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>143</v>
@@ -22129,7 +23484,7 @@
       <c r="B71" s="34">
         <v>63</v>
       </c>
-      <c r="C71" s="533">
+      <c r="C71" s="531">
         <v>2018</v>
       </c>
       <c r="D71" s="34">
@@ -22198,7 +23553,7 @@
       <c r="B72" s="34">
         <v>64</v>
       </c>
-      <c r="C72" s="533">
+      <c r="C72" s="531">
         <v>2018</v>
       </c>
       <c r="D72" s="34">
@@ -22263,7 +23618,7 @@
       <c r="B73" s="34">
         <v>65</v>
       </c>
-      <c r="C73" s="533">
+      <c r="C73" s="531">
         <v>2018</v>
       </c>
       <c r="D73" s="34">
@@ -22328,7 +23683,7 @@
       <c r="B74" s="34">
         <v>66</v>
       </c>
-      <c r="C74" s="533">
+      <c r="C74" s="531">
         <v>2018</v>
       </c>
       <c r="D74" s="34">
@@ -22393,7 +23748,7 @@
       <c r="B75" s="34">
         <v>67</v>
       </c>
-      <c r="C75" s="533">
+      <c r="C75" s="531">
         <v>2018</v>
       </c>
       <c r="D75" s="34">
@@ -22458,7 +23813,7 @@
       <c r="B76" s="34">
         <v>68</v>
       </c>
-      <c r="C76" s="533">
+      <c r="C76" s="531">
         <v>2018</v>
       </c>
       <c r="D76" s="34">
@@ -22527,7 +23882,7 @@
       <c r="B77" s="34">
         <v>69</v>
       </c>
-      <c r="C77" s="533">
+      <c r="C77" s="531">
         <v>2018</v>
       </c>
       <c r="D77" s="34">
@@ -22596,7 +23951,7 @@
       <c r="B78" s="34">
         <v>70</v>
       </c>
-      <c r="C78" s="533">
+      <c r="C78" s="531">
         <v>2018</v>
       </c>
       <c r="D78" s="34">
@@ -22606,7 +23961,7 @@
         <v>80</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G78" s="34" t="s">
         <v>156</v>
@@ -22665,7 +24020,7 @@
       <c r="B79" s="34">
         <v>71</v>
       </c>
-      <c r="C79" s="533">
+      <c r="C79" s="531">
         <v>2018</v>
       </c>
       <c r="D79" s="34">
@@ -22675,7 +24030,7 @@
         <v>80</v>
       </c>
       <c r="F79" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G79" s="34" t="s">
         <v>31</v>
@@ -22730,7 +24085,7 @@
       <c r="B80" s="34">
         <v>72</v>
       </c>
-      <c r="C80" s="533">
+      <c r="C80" s="531">
         <v>2018</v>
       </c>
       <c r="D80" s="34">
@@ -22740,7 +24095,7 @@
         <v>80</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G80" s="34" t="s">
         <v>158</v>
@@ -22795,7 +24150,7 @@
       <c r="B81" s="34">
         <v>73</v>
       </c>
-      <c r="C81" s="533">
+      <c r="C81" s="531">
         <v>2018</v>
       </c>
       <c r="D81" s="34">
@@ -22805,7 +24160,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G81" s="34" t="s">
         <v>159</v>
@@ -22860,7 +24215,7 @@
       <c r="B82" s="34">
         <v>74</v>
       </c>
-      <c r="C82" s="533">
+      <c r="C82" s="531">
         <v>2018</v>
       </c>
       <c r="D82" s="34">
@@ -22870,7 +24225,7 @@
         <v>80</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G82" s="34" t="s">
         <v>160</v>
@@ -22925,7 +24280,7 @@
       <c r="B83" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="534">
+      <c r="C83" s="532">
         <v>2018</v>
       </c>
       <c r="D83" s="39">
@@ -22994,7 +24349,7 @@
       <c r="B84" s="44">
         <v>75</v>
       </c>
-      <c r="C84" s="536">
+      <c r="C84" s="534">
         <v>2019</v>
       </c>
       <c r="D84" s="44">
@@ -23004,7 +24359,7 @@
         <v>91</v>
       </c>
       <c r="F84" s="44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G84" s="44" t="s">
         <v>163</v>
@@ -23059,7 +24414,7 @@
     <row r="85" spans="1:23">
       <c r="A85" s="34"/>
       <c r="B85" s="34"/>
-      <c r="C85" s="537">
+      <c r="C85" s="535">
         <v>2019</v>
       </c>
       <c r="D85" s="34">
@@ -23069,7 +24424,7 @@
         <v>91</v>
       </c>
       <c r="F85" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G85" s="34" t="s">
         <v>32</v>
@@ -23122,7 +24477,7 @@
       <c r="B86" s="34">
         <v>76</v>
       </c>
-      <c r="C86" s="537">
+      <c r="C86" s="535">
         <v>2019</v>
       </c>
       <c r="D86" s="34">
@@ -23132,7 +24487,7 @@
         <v>91</v>
       </c>
       <c r="F86" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G86" s="34" t="s">
         <v>33</v>
@@ -23189,7 +24544,7 @@
       <c r="B87" s="34">
         <v>77</v>
       </c>
-      <c r="C87" s="537">
+      <c r="C87" s="535">
         <v>2019</v>
       </c>
       <c r="D87" s="34">
@@ -23199,7 +24554,7 @@
         <v>91</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G87" s="34" t="s">
         <v>166</v>
@@ -23256,7 +24611,7 @@
       <c r="B88" s="34">
         <v>78</v>
       </c>
-      <c r="C88" s="537">
+      <c r="C88" s="535">
         <v>2019</v>
       </c>
       <c r="D88" s="34">
@@ -23266,7 +24621,7 @@
         <v>91</v>
       </c>
       <c r="F88" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G88" s="34" t="s">
         <v>167</v>
@@ -23323,7 +24678,7 @@
       <c r="B89" s="34">
         <v>79</v>
       </c>
-      <c r="C89" s="537">
+      <c r="C89" s="535">
         <v>2019</v>
       </c>
       <c r="D89" s="34">
@@ -23333,7 +24688,7 @@
         <v>91</v>
       </c>
       <c r="F89" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G89" s="34" t="s">
         <v>168</v>
@@ -23390,7 +24745,7 @@
       <c r="B90" s="34">
         <v>80</v>
       </c>
-      <c r="C90" s="537">
+      <c r="C90" s="535">
         <v>2019</v>
       </c>
       <c r="D90" s="34">
@@ -23400,7 +24755,7 @@
         <v>91</v>
       </c>
       <c r="F90" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G90" s="34" t="s">
         <v>34</v>
@@ -23457,7 +24812,7 @@
       <c r="B91" s="34">
         <v>81</v>
       </c>
-      <c r="C91" s="537">
+      <c r="C91" s="535">
         <v>2019</v>
       </c>
       <c r="D91" s="34">
@@ -23467,7 +24822,7 @@
         <v>91</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G91" s="34" t="s">
         <v>35</v>
@@ -23524,7 +24879,7 @@
       <c r="B92" s="34">
         <v>82</v>
       </c>
-      <c r="C92" s="537">
+      <c r="C92" s="535">
         <v>2019</v>
       </c>
       <c r="D92" s="34">
@@ -23534,7 +24889,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G92" s="34" t="s">
         <v>169</v>
@@ -23591,7 +24946,7 @@
       <c r="B93" s="34">
         <v>83</v>
       </c>
-      <c r="C93" s="537">
+      <c r="C93" s="535">
         <v>2019</v>
       </c>
       <c r="D93" s="34">
@@ -23660,7 +25015,7 @@
       <c r="B94" s="34">
         <v>84</v>
       </c>
-      <c r="C94" s="537">
+      <c r="C94" s="535">
         <v>2019</v>
       </c>
       <c r="D94" s="34">
@@ -23670,7 +25025,7 @@
         <v>80</v>
       </c>
       <c r="F94" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G94" s="34" t="s">
         <v>36</v>
@@ -23729,7 +25084,7 @@
       <c r="B95" s="34">
         <v>85</v>
       </c>
-      <c r="C95" s="537">
+      <c r="C95" s="535">
         <v>2019</v>
       </c>
       <c r="D95" s="34">
@@ -23739,7 +25094,7 @@
         <v>80</v>
       </c>
       <c r="F95" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G95" s="34" t="s">
         <v>37</v>
@@ -23794,7 +25149,7 @@
       <c r="B96" s="34">
         <v>86</v>
       </c>
-      <c r="C96" s="537">
+      <c r="C96" s="535">
         <v>2019</v>
       </c>
       <c r="D96" s="34">
@@ -23804,7 +25159,7 @@
         <v>80</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G96" s="34" t="s">
         <v>174</v>
@@ -23859,7 +25214,7 @@
       <c r="B97" s="34">
         <v>87</v>
       </c>
-      <c r="C97" s="537">
+      <c r="C97" s="535">
         <v>2019</v>
       </c>
       <c r="D97" s="34">
@@ -23869,7 +25224,7 @@
         <v>80</v>
       </c>
       <c r="F97" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G97" s="34" t="s">
         <v>38</v>
@@ -23924,7 +25279,7 @@
       <c r="B98" s="34">
         <v>88</v>
       </c>
-      <c r="C98" s="537">
+      <c r="C98" s="535">
         <v>2019</v>
       </c>
       <c r="D98" s="34">
@@ -23934,7 +25289,7 @@
         <v>80</v>
       </c>
       <c r="F98" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G98" s="34" t="s">
         <v>39</v>
@@ -23989,7 +25344,7 @@
       <c r="B99" s="34">
         <v>89</v>
       </c>
-      <c r="C99" s="537">
+      <c r="C99" s="535">
         <v>2019</v>
       </c>
       <c r="D99" s="34">
@@ -23999,7 +25354,7 @@
         <v>80</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G99" s="34" t="s">
         <v>40</v>
@@ -24054,7 +25409,7 @@
       <c r="B100" s="34">
         <v>90</v>
       </c>
-      <c r="C100" s="537">
+      <c r="C100" s="535">
         <v>2019</v>
       </c>
       <c r="D100" s="34">
@@ -24064,7 +25419,7 @@
         <v>80</v>
       </c>
       <c r="F100" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G100" s="34" t="s">
         <v>177</v>
@@ -24119,7 +25474,7 @@
       <c r="B101" s="34">
         <v>91</v>
       </c>
-      <c r="C101" s="537">
+      <c r="C101" s="535">
         <v>2019</v>
       </c>
       <c r="D101" s="34">
@@ -24129,7 +25484,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G101" s="34" t="s">
         <v>179</v>
@@ -24184,7 +25539,7 @@
       <c r="B102" s="34">
         <v>92</v>
       </c>
-      <c r="C102" s="537">
+      <c r="C102" s="535">
         <v>2019</v>
       </c>
       <c r="D102" s="34">
@@ -24194,7 +25549,7 @@
         <v>80</v>
       </c>
       <c r="F102" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G102" s="34" t="s">
         <v>180</v>
@@ -24249,7 +25604,7 @@
       <c r="B103" s="34">
         <v>93</v>
       </c>
-      <c r="C103" s="537">
+      <c r="C103" s="535">
         <v>2019</v>
       </c>
       <c r="D103" s="34">
@@ -24259,7 +25614,7 @@
         <v>80</v>
       </c>
       <c r="F103" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G103" s="34" t="s">
         <v>41</v>
@@ -24314,7 +25669,7 @@
       <c r="B104" s="34">
         <v>94</v>
       </c>
-      <c r="C104" s="537">
+      <c r="C104" s="535">
         <v>2019</v>
       </c>
       <c r="D104" s="34">
@@ -24324,7 +25679,7 @@
         <v>80</v>
       </c>
       <c r="F104" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G104" s="34" t="s">
         <v>181</v>
@@ -24379,7 +25734,7 @@
       <c r="B105" s="34">
         <v>95</v>
       </c>
-      <c r="C105" s="537">
+      <c r="C105" s="535">
         <v>2019</v>
       </c>
       <c r="D105" s="34">
@@ -24389,7 +25744,7 @@
         <v>80</v>
       </c>
       <c r="F105" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G105" s="34" t="s">
         <v>182</v>
@@ -24444,7 +25799,7 @@
       <c r="B106" s="34">
         <v>96</v>
       </c>
-      <c r="C106" s="537">
+      <c r="C106" s="535">
         <v>2019</v>
       </c>
       <c r="D106" s="34">
@@ -24454,7 +25809,7 @@
         <v>80</v>
       </c>
       <c r="F106" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G106" s="34" t="s">
         <v>184</v>
@@ -24509,7 +25864,7 @@
       <c r="B107" s="34">
         <v>97</v>
       </c>
-      <c r="C107" s="537">
+      <c r="C107" s="535">
         <v>2019</v>
       </c>
       <c r="D107" s="34">
@@ -24519,7 +25874,7 @@
         <v>80</v>
       </c>
       <c r="F107" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G107" s="34" t="s">
         <v>42</v>
@@ -24574,7 +25929,7 @@
       <c r="B108" s="34">
         <v>98</v>
       </c>
-      <c r="C108" s="537">
+      <c r="C108" s="535">
         <v>2019</v>
       </c>
       <c r="D108" s="34">
@@ -24584,7 +25939,7 @@
         <v>80</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G108" s="34" t="s">
         <v>187</v>
@@ -24639,7 +25994,7 @@
       <c r="B109" s="34">
         <v>99</v>
       </c>
-      <c r="C109" s="537">
+      <c r="C109" s="535">
         <v>2019</v>
       </c>
       <c r="D109" s="34">
@@ -24649,7 +26004,7 @@
         <v>80</v>
       </c>
       <c r="F109" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G109" s="34" t="s">
         <v>189</v>
@@ -24704,7 +26059,7 @@
       <c r="B110" s="34">
         <v>100</v>
       </c>
-      <c r="C110" s="537">
+      <c r="C110" s="535">
         <v>2019</v>
       </c>
       <c r="D110" s="34">
@@ -24714,7 +26069,7 @@
         <v>80</v>
       </c>
       <c r="F110" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G110" s="34" t="s">
         <v>190</v>
@@ -24769,7 +26124,7 @@
       <c r="B111" s="34">
         <v>101</v>
       </c>
-      <c r="C111" s="537">
+      <c r="C111" s="535">
         <v>2019</v>
       </c>
       <c r="D111" s="34">
@@ -24779,7 +26134,7 @@
         <v>80</v>
       </c>
       <c r="F111" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G111" s="34" t="s">
         <v>192</v>
@@ -24834,7 +26189,7 @@
       <c r="B112" s="34">
         <v>102</v>
       </c>
-      <c r="C112" s="537">
+      <c r="C112" s="535">
         <v>2019</v>
       </c>
       <c r="D112" s="34">
@@ -24844,7 +26199,7 @@
         <v>80</v>
       </c>
       <c r="F112" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G112" s="34" t="s">
         <v>194</v>
@@ -24895,7 +26250,7 @@
     <row r="113" spans="1:23">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
-      <c r="C113" s="537">
+      <c r="C113" s="535">
         <v>2019</v>
       </c>
       <c r="D113" s="34">
@@ -24905,7 +26260,7 @@
         <v>80</v>
       </c>
       <c r="F113" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G113" s="34" t="s">
         <v>156</v>
@@ -24960,7 +26315,7 @@
       <c r="B114" s="34">
         <v>103</v>
       </c>
-      <c r="C114" s="537">
+      <c r="C114" s="535">
         <v>2019</v>
       </c>
       <c r="D114" s="34">
@@ -24970,7 +26325,7 @@
         <v>80</v>
       </c>
       <c r="F114" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G114" s="34" t="s">
         <v>196</v>
@@ -25025,7 +26380,7 @@
       <c r="B115" s="34">
         <v>104</v>
       </c>
-      <c r="C115" s="537">
+      <c r="C115" s="535">
         <v>2019</v>
       </c>
       <c r="D115" s="34">
@@ -25034,8 +26389,8 @@
       <c r="E115" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F115" s="539" t="s">
-        <v>299</v>
+      <c r="F115" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G115" s="34" t="s">
         <v>198</v>
@@ -25096,7 +26451,7 @@
       <c r="B116" s="34">
         <v>105</v>
       </c>
-      <c r="C116" s="537">
+      <c r="C116" s="535">
         <v>2019</v>
       </c>
       <c r="D116" s="34">
@@ -25105,8 +26460,8 @@
       <c r="E116" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F116" s="539" t="s">
-        <v>299</v>
+      <c r="F116" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G116" s="34" t="s">
         <v>199</v>
@@ -25163,7 +26518,7 @@
       <c r="B117" s="34">
         <v>106</v>
       </c>
-      <c r="C117" s="537">
+      <c r="C117" s="535">
         <v>2019</v>
       </c>
       <c r="D117" s="34">
@@ -25172,8 +26527,8 @@
       <c r="E117" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F117" s="539" t="s">
-        <v>299</v>
+      <c r="F117" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G117" s="34" t="s">
         <v>201</v>
@@ -25230,7 +26585,7 @@
       <c r="B118" s="34">
         <v>107</v>
       </c>
-      <c r="C118" s="537">
+      <c r="C118" s="535">
         <v>2019</v>
       </c>
       <c r="D118" s="34">
@@ -25239,8 +26594,8 @@
       <c r="E118" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F118" s="539" t="s">
-        <v>299</v>
+      <c r="F118" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G118" s="34" t="s">
         <v>202</v>
@@ -25297,7 +26652,7 @@
       <c r="B119" s="34">
         <v>108</v>
       </c>
-      <c r="C119" s="537">
+      <c r="C119" s="535">
         <v>2019</v>
       </c>
       <c r="D119" s="34">
@@ -25306,8 +26661,8 @@
       <c r="E119" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F119" s="539" t="s">
-        <v>299</v>
+      <c r="F119" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G119" s="34" t="s">
         <v>203</v>
@@ -25364,7 +26719,7 @@
       <c r="B120" s="34">
         <v>109</v>
       </c>
-      <c r="C120" s="537">
+      <c r="C120" s="535">
         <v>2019</v>
       </c>
       <c r="D120" s="34">
@@ -25373,8 +26728,8 @@
       <c r="E120" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F120" s="539" t="s">
-        <v>299</v>
+      <c r="F120" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G120" s="34" t="s">
         <v>137</v>
@@ -25431,7 +26786,7 @@
       <c r="B121" s="34">
         <v>110</v>
       </c>
-      <c r="C121" s="537">
+      <c r="C121" s="535">
         <v>2019</v>
       </c>
       <c r="D121" s="34">
@@ -25440,8 +26795,8 @@
       <c r="E121" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F121" s="539" t="s">
-        <v>299</v>
+      <c r="F121" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G121" s="34" t="s">
         <v>204</v>
@@ -25498,7 +26853,7 @@
       <c r="B122" s="34">
         <v>111</v>
       </c>
-      <c r="C122" s="537">
+      <c r="C122" s="535">
         <v>2019</v>
       </c>
       <c r="D122" s="34">
@@ -25507,8 +26862,8 @@
       <c r="E122" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F122" s="539" t="s">
-        <v>299</v>
+      <c r="F122" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G122" s="34" t="s">
         <v>205</v>
@@ -25565,7 +26920,7 @@
       <c r="B123" s="34">
         <v>112</v>
       </c>
-      <c r="C123" s="537">
+      <c r="C123" s="535">
         <v>2019</v>
       </c>
       <c r="D123" s="34">
@@ -25574,8 +26929,8 @@
       <c r="E123" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F123" s="539" t="s">
-        <v>299</v>
+      <c r="F123" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G123" s="34" t="s">
         <v>206</v>
@@ -25632,7 +26987,7 @@
       <c r="B124" s="34">
         <v>113</v>
       </c>
-      <c r="C124" s="537">
+      <c r="C124" s="535">
         <v>2019</v>
       </c>
       <c r="D124" s="34">
@@ -25641,8 +26996,8 @@
       <c r="E124" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F124" s="539" t="s">
-        <v>299</v>
+      <c r="F124" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G124" s="34" t="s">
         <v>207</v>
@@ -25699,7 +27054,7 @@
       <c r="B125" s="34">
         <v>114</v>
       </c>
-      <c r="C125" s="537">
+      <c r="C125" s="535">
         <v>2019</v>
       </c>
       <c r="D125" s="34">
@@ -25708,8 +27063,8 @@
       <c r="E125" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F125" s="539" t="s">
-        <v>299</v>
+      <c r="F125" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G125" s="34" t="s">
         <v>179</v>
@@ -25766,7 +27121,7 @@
       <c r="B126" s="34">
         <v>115</v>
       </c>
-      <c r="C126" s="537">
+      <c r="C126" s="535">
         <v>2019</v>
       </c>
       <c r="D126" s="34">
@@ -25775,8 +27130,8 @@
       <c r="E126" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F126" s="539" t="s">
-        <v>299</v>
+      <c r="F126" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G126" s="34" t="s">
         <v>208</v>
@@ -25833,7 +27188,7 @@
       <c r="B127" s="34">
         <v>116</v>
       </c>
-      <c r="C127" s="537">
+      <c r="C127" s="535">
         <v>2019</v>
       </c>
       <c r="D127" s="34">
@@ -25842,8 +27197,8 @@
       <c r="E127" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F127" s="539" t="s">
-        <v>299</v>
+      <c r="F127" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G127" s="34" t="s">
         <v>209</v>
@@ -25900,7 +27255,7 @@
       <c r="B128" s="34">
         <v>117</v>
       </c>
-      <c r="C128" s="537">
+      <c r="C128" s="535">
         <v>2019</v>
       </c>
       <c r="D128" s="34">
@@ -25909,8 +27264,8 @@
       <c r="E128" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F128" s="539" t="s">
-        <v>299</v>
+      <c r="F128" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G128" s="34" t="s">
         <v>210</v>
@@ -25967,7 +27322,7 @@
       <c r="B129" s="34">
         <v>118</v>
       </c>
-      <c r="C129" s="537">
+      <c r="C129" s="535">
         <v>2019</v>
       </c>
       <c r="D129" s="34">
@@ -25976,8 +27331,8 @@
       <c r="E129" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F129" s="539" t="s">
-        <v>299</v>
+      <c r="F129" s="537" t="s">
+        <v>297</v>
       </c>
       <c r="G129" s="34" t="s">
         <v>211</v>
@@ -26034,7 +27389,7 @@
       <c r="B130" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C130" s="537">
+      <c r="C130" s="535">
         <v>2019</v>
       </c>
       <c r="D130" s="39">
@@ -26105,7 +27460,7 @@
       <c r="B131" s="44">
         <v>119</v>
       </c>
-      <c r="C131" s="536">
+      <c r="C131" s="534">
         <v>2020</v>
       </c>
       <c r="D131" s="44">
@@ -26114,8 +27469,8 @@
       <c r="E131" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F131" s="540" t="s">
-        <v>295</v>
+      <c r="F131" s="538" t="s">
+        <v>293</v>
       </c>
       <c r="G131" s="44" t="s">
         <v>213</v>
@@ -26182,7 +27537,7 @@
       <c r="B132" s="34">
         <v>120</v>
       </c>
-      <c r="C132" s="537">
+      <c r="C132" s="535">
         <v>2020</v>
       </c>
       <c r="D132" s="34">
@@ -26191,8 +27546,8 @@
       <c r="E132" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F132" s="539" t="s">
-        <v>295</v>
+      <c r="F132" s="537" t="s">
+        <v>293</v>
       </c>
       <c r="G132" s="34" t="s">
         <v>214</v>
@@ -26249,7 +27604,7 @@
       <c r="B133" s="34">
         <v>121</v>
       </c>
-      <c r="C133" s="537">
+      <c r="C133" s="535">
         <v>2020</v>
       </c>
       <c r="D133" s="34">
@@ -26258,8 +27613,8 @@
       <c r="E133" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F133" s="539" t="s">
-        <v>295</v>
+      <c r="F133" s="537" t="s">
+        <v>293</v>
       </c>
       <c r="G133" s="34" t="s">
         <v>215</v>
@@ -26316,7 +27671,7 @@
       <c r="B134" s="34">
         <v>122</v>
       </c>
-      <c r="C134" s="537">
+      <c r="C134" s="535">
         <v>2020</v>
       </c>
       <c r="D134" s="34">
@@ -26325,8 +27680,8 @@
       <c r="E134" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F134" s="539" t="s">
-        <v>310</v>
+      <c r="F134" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G134" s="34" t="s">
         <v>217</v>
@@ -26389,7 +27744,7 @@
       <c r="B135" s="34">
         <v>123</v>
       </c>
-      <c r="C135" s="537">
+      <c r="C135" s="535">
         <v>2020</v>
       </c>
       <c r="D135" s="34">
@@ -26398,8 +27753,8 @@
       <c r="E135" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F135" s="539" t="s">
-        <v>310</v>
+      <c r="F135" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G135" s="34" t="s">
         <v>219</v>
@@ -26456,7 +27811,7 @@
       <c r="B136" s="34">
         <v>124</v>
       </c>
-      <c r="C136" s="537">
+      <c r="C136" s="535">
         <v>2020</v>
       </c>
       <c r="D136" s="34">
@@ -26465,8 +27820,8 @@
       <c r="E136" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F136" s="539" t="s">
-        <v>310</v>
+      <c r="F136" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G136" s="34" t="s">
         <v>220</v>
@@ -26523,7 +27878,7 @@
       <c r="B137" s="34">
         <v>125</v>
       </c>
-      <c r="C137" s="537">
+      <c r="C137" s="535">
         <v>2020</v>
       </c>
       <c r="D137" s="34">
@@ -26532,8 +27887,8 @@
       <c r="E137" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F137" s="539" t="s">
-        <v>310</v>
+      <c r="F137" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G137" s="34" t="s">
         <v>222</v>
@@ -26590,7 +27945,7 @@
       <c r="B138" s="34">
         <v>126</v>
       </c>
-      <c r="C138" s="537">
+      <c r="C138" s="535">
         <v>2020</v>
       </c>
       <c r="D138" s="34">
@@ -26599,8 +27954,8 @@
       <c r="E138" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F138" s="539" t="s">
-        <v>310</v>
+      <c r="F138" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G138" s="34" t="s">
         <v>223</v>
@@ -26657,7 +28012,7 @@
       <c r="B139" s="34">
         <v>127</v>
       </c>
-      <c r="C139" s="537">
+      <c r="C139" s="535">
         <v>2020</v>
       </c>
       <c r="D139" s="34">
@@ -26666,8 +28021,8 @@
       <c r="E139" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F139" s="539" t="s">
-        <v>310</v>
+      <c r="F139" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G139" s="34" t="s">
         <v>224</v>
@@ -26724,7 +28079,7 @@
       <c r="B140" s="34">
         <v>128</v>
       </c>
-      <c r="C140" s="537">
+      <c r="C140" s="535">
         <v>2020</v>
       </c>
       <c r="D140" s="34">
@@ -26733,8 +28088,8 @@
       <c r="E140" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F140" s="539" t="s">
-        <v>310</v>
+      <c r="F140" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G140" s="34" t="s">
         <v>225</v>
@@ -26791,7 +28146,7 @@
       <c r="B141" s="34">
         <v>129</v>
       </c>
-      <c r="C141" s="537">
+      <c r="C141" s="535">
         <v>2020</v>
       </c>
       <c r="D141" s="34">
@@ -26800,8 +28155,8 @@
       <c r="E141" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F141" s="539" t="s">
-        <v>310</v>
+      <c r="F141" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G141" s="34" t="s">
         <v>156</v>
@@ -26858,7 +28213,7 @@
       <c r="B142" s="34">
         <v>130</v>
       </c>
-      <c r="C142" s="537">
+      <c r="C142" s="535">
         <v>2020</v>
       </c>
       <c r="D142" s="34">
@@ -26867,8 +28222,8 @@
       <c r="E142" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F142" s="539" t="s">
-        <v>310</v>
+      <c r="F142" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G142" s="34" t="s">
         <v>227</v>
@@ -26925,7 +28280,7 @@
       <c r="B143" s="34">
         <v>131</v>
       </c>
-      <c r="C143" s="537">
+      <c r="C143" s="535">
         <v>2020</v>
       </c>
       <c r="D143" s="34">
@@ -26934,8 +28289,8 @@
       <c r="E143" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F143" s="539" t="s">
-        <v>310</v>
+      <c r="F143" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G143" s="34" t="s">
         <v>228</v>
@@ -26992,7 +28347,7 @@
       <c r="B144" s="34">
         <v>132</v>
       </c>
-      <c r="C144" s="537">
+      <c r="C144" s="535">
         <v>2020</v>
       </c>
       <c r="D144" s="34">
@@ -27001,8 +28356,8 @@
       <c r="E144" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F144" s="539" t="s">
-        <v>310</v>
+      <c r="F144" s="537" t="s">
+        <v>308</v>
       </c>
       <c r="G144" s="34" t="s">
         <v>229</v>
@@ -27059,7 +28414,7 @@
       <c r="B145" s="34">
         <v>133</v>
       </c>
-      <c r="C145" s="537">
+      <c r="C145" s="535">
         <v>2020</v>
       </c>
       <c r="D145" s="34">
@@ -27068,8 +28423,8 @@
       <c r="E145" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F145" s="539" t="s">
-        <v>296</v>
+      <c r="F145" s="537" t="s">
+        <v>294</v>
       </c>
       <c r="G145" s="34" t="s">
         <v>232</v>
@@ -27132,7 +28487,7 @@
       <c r="B146" s="34">
         <v>134</v>
       </c>
-      <c r="C146" s="537">
+      <c r="C146" s="535">
         <v>2020</v>
       </c>
       <c r="D146" s="34">
@@ -27141,8 +28496,8 @@
       <c r="E146" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F146" s="539" t="s">
-        <v>296</v>
+      <c r="F146" s="537" t="s">
+        <v>294</v>
       </c>
       <c r="G146" s="34" t="s">
         <v>233</v>
@@ -27205,7 +28560,7 @@
       <c r="B147" s="34">
         <v>135</v>
       </c>
-      <c r="C147" s="537">
+      <c r="C147" s="535">
         <v>2020</v>
       </c>
       <c r="D147" s="34">
@@ -27214,8 +28569,8 @@
       <c r="E147" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F147" s="539" t="s">
-        <v>296</v>
+      <c r="F147" s="537" t="s">
+        <v>294</v>
       </c>
       <c r="G147" s="34" t="s">
         <v>234</v>
@@ -27278,7 +28633,7 @@
       <c r="B148" s="34">
         <v>136</v>
       </c>
-      <c r="C148" s="537">
+      <c r="C148" s="535">
         <v>2020</v>
       </c>
       <c r="D148" s="34">
@@ -27287,8 +28642,8 @@
       <c r="E148" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F148" s="539" t="s">
-        <v>296</v>
+      <c r="F148" s="537" t="s">
+        <v>294</v>
       </c>
       <c r="G148" s="34" t="s">
         <v>235</v>
@@ -27351,7 +28706,7 @@
       <c r="B149" s="34">
         <v>137</v>
       </c>
-      <c r="C149" s="537">
+      <c r="C149" s="535">
         <v>2020</v>
       </c>
       <c r="D149" s="34">
@@ -27360,8 +28715,8 @@
       <c r="E149" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F149" s="539" t="s">
-        <v>300</v>
+      <c r="F149" s="537" t="s">
+        <v>298</v>
       </c>
       <c r="G149" s="34" t="s">
         <v>50</v>
@@ -27424,7 +28779,7 @@
       <c r="B150" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="C150" s="537">
+      <c r="C150" s="535">
         <v>2020</v>
       </c>
       <c r="D150" s="34">
@@ -27433,8 +28788,8 @@
       <c r="E150" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F150" s="539" t="s">
-        <v>300</v>
+      <c r="F150" s="537" t="s">
+        <v>298</v>
       </c>
       <c r="G150" s="34" t="s">
         <v>66</v>
@@ -27491,7 +28846,7 @@
       <c r="B151" s="34">
         <v>138</v>
       </c>
-      <c r="C151" s="537">
+      <c r="C151" s="535">
         <v>2020</v>
       </c>
       <c r="D151" s="34">
@@ -27500,8 +28855,8 @@
       <c r="E151" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F151" s="539" t="s">
-        <v>301</v>
+      <c r="F151" s="537" t="s">
+        <v>299</v>
       </c>
       <c r="G151" s="34" t="s">
         <v>238</v>
@@ -27564,7 +28919,7 @@
       <c r="B152" s="34">
         <v>139</v>
       </c>
-      <c r="C152" s="537">
+      <c r="C152" s="535">
         <v>2020</v>
       </c>
       <c r="D152" s="34">
@@ -27573,8 +28928,8 @@
       <c r="E152" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F152" s="539" t="s">
-        <v>301</v>
+      <c r="F152" s="537" t="s">
+        <v>299</v>
       </c>
       <c r="G152" s="34" t="s">
         <v>239</v>
@@ -27633,7 +28988,7 @@
       <c r="B153" s="34">
         <v>140</v>
       </c>
-      <c r="C153" s="537">
+      <c r="C153" s="535">
         <v>2020</v>
       </c>
       <c r="D153" s="34">
@@ -27642,8 +28997,8 @@
       <c r="E153" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F153" s="539" t="s">
-        <v>302</v>
+      <c r="F153" s="537" t="s">
+        <v>300</v>
       </c>
       <c r="G153" s="34" t="s">
         <v>241</v>
@@ -27706,7 +29061,7 @@
       <c r="B154" s="34">
         <v>141</v>
       </c>
-      <c r="C154" s="537">
+      <c r="C154" s="535">
         <v>2020</v>
       </c>
       <c r="D154" s="34">
@@ -27715,8 +29070,8 @@
       <c r="E154" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F154" s="539" t="s">
-        <v>302</v>
+      <c r="F154" s="537" t="s">
+        <v>300</v>
       </c>
       <c r="G154" s="34" t="s">
         <v>242</v>
@@ -27775,7 +29130,7 @@
       <c r="B155" s="34">
         <v>142</v>
       </c>
-      <c r="C155" s="537">
+      <c r="C155" s="535">
         <v>2020</v>
       </c>
       <c r="D155" s="34">
@@ -27784,8 +29139,8 @@
       <c r="E155" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F155" s="539" t="s">
-        <v>303</v>
+      <c r="F155" s="537" t="s">
+        <v>301</v>
       </c>
       <c r="G155" s="34" t="s">
         <v>245</v>
@@ -27848,7 +29203,7 @@
       <c r="B156" s="34">
         <v>143</v>
       </c>
-      <c r="C156" s="537">
+      <c r="C156" s="535">
         <v>2020</v>
       </c>
       <c r="D156" s="34">
@@ -27857,8 +29212,8 @@
       <c r="E156" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F156" s="539" t="s">
-        <v>303</v>
+      <c r="F156" s="537" t="s">
+        <v>301</v>
       </c>
       <c r="G156" s="34" t="s">
         <v>246</v>
@@ -27917,7 +29272,7 @@
       <c r="B157" s="34">
         <v>144</v>
       </c>
-      <c r="C157" s="537">
+      <c r="C157" s="535">
         <v>2020</v>
       </c>
       <c r="D157" s="34">
@@ -27926,8 +29281,8 @@
       <c r="E157" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F157" s="539" t="s">
-        <v>304</v>
+      <c r="F157" s="537" t="s">
+        <v>302</v>
       </c>
       <c r="G157" s="34" t="s">
         <v>249</v>
@@ -27990,7 +29345,7 @@
       <c r="B158" s="34">
         <v>145</v>
       </c>
-      <c r="C158" s="537">
+      <c r="C158" s="535">
         <v>2020</v>
       </c>
       <c r="D158" s="34">
@@ -27999,8 +29354,8 @@
       <c r="E158" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F158" s="539" t="s">
-        <v>304</v>
+      <c r="F158" s="537" t="s">
+        <v>302</v>
       </c>
       <c r="G158" s="34" t="s">
         <v>250</v>
@@ -28059,7 +29414,7 @@
       <c r="B159" s="34">
         <v>146</v>
       </c>
-      <c r="C159" s="537">
+      <c r="C159" s="535">
         <v>2020</v>
       </c>
       <c r="D159" s="34">
@@ -28068,8 +29423,8 @@
       <c r="E159" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F159" s="539" t="s">
-        <v>305</v>
+      <c r="F159" s="537" t="s">
+        <v>303</v>
       </c>
       <c r="G159" s="34" t="s">
         <v>53</v>
@@ -28132,7 +29487,7 @@
       <c r="B160" s="34">
         <v>147</v>
       </c>
-      <c r="C160" s="537">
+      <c r="C160" s="535">
         <v>2020</v>
       </c>
       <c r="D160" s="34">
@@ -28141,8 +29496,8 @@
       <c r="E160" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F160" s="539" t="s">
-        <v>305</v>
+      <c r="F160" s="537" t="s">
+        <v>303</v>
       </c>
       <c r="G160" s="34" t="s">
         <v>252</v>
@@ -28201,7 +29556,7 @@
       <c r="B161" s="34">
         <v>148</v>
       </c>
-      <c r="C161" s="537">
+      <c r="C161" s="535">
         <v>2020</v>
       </c>
       <c r="D161" s="34">
@@ -28210,8 +29565,8 @@
       <c r="E161" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F161" s="539" t="s">
-        <v>306</v>
+      <c r="F161" s="537" t="s">
+        <v>304</v>
       </c>
       <c r="G161" s="34" t="s">
         <v>254</v>
@@ -28274,7 +29629,7 @@
       <c r="B162" s="34">
         <v>149</v>
       </c>
-      <c r="C162" s="537">
+      <c r="C162" s="535">
         <v>2020</v>
       </c>
       <c r="D162" s="34">
@@ -28283,8 +29638,8 @@
       <c r="E162" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F162" s="539" t="s">
-        <v>306</v>
+      <c r="F162" s="537" t="s">
+        <v>304</v>
       </c>
       <c r="G162" s="34" t="s">
         <v>255</v>
@@ -28343,7 +29698,7 @@
       <c r="B163" s="34">
         <v>150</v>
       </c>
-      <c r="C163" s="537">
+      <c r="C163" s="535">
         <v>2020</v>
       </c>
       <c r="D163" s="34">
@@ -28352,8 +29707,8 @@
       <c r="E163" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F163" s="539" t="s">
-        <v>307</v>
+      <c r="F163" s="537" t="s">
+        <v>305</v>
       </c>
       <c r="G163" s="34" t="s">
         <v>257</v>
@@ -28416,7 +29771,7 @@
       <c r="B164" s="34">
         <v>151</v>
       </c>
-      <c r="C164" s="537">
+      <c r="C164" s="535">
         <v>2020</v>
       </c>
       <c r="D164" s="34">
@@ -28425,8 +29780,8 @@
       <c r="E164" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F164" s="539" t="s">
-        <v>307</v>
+      <c r="F164" s="537" t="s">
+        <v>305</v>
       </c>
       <c r="G164" s="34" t="s">
         <v>202</v>
@@ -28485,7 +29840,7 @@
       <c r="B165" s="34">
         <v>152</v>
       </c>
-      <c r="C165" s="537">
+      <c r="C165" s="535">
         <v>2020</v>
       </c>
       <c r="D165" s="34">
@@ -28494,8 +29849,8 @@
       <c r="E165" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F165" s="539" t="s">
-        <v>307</v>
+      <c r="F165" s="537" t="s">
+        <v>305</v>
       </c>
       <c r="G165" s="34" t="s">
         <v>156</v>
@@ -28564,7 +29919,7 @@
         <v>44</v>
       </c>
       <c r="F166" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G166" s="34" t="s">
         <v>260</v>
@@ -28628,8 +29983,8 @@
       <c r="E167" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F167" s="539" t="s">
-        <v>308</v>
+      <c r="F167" s="537" t="s">
+        <v>306</v>
       </c>
       <c r="G167" s="34" t="s">
         <v>262</v>
@@ -28699,8 +30054,8 @@
       <c r="E168" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F168" s="539" t="s">
-        <v>308</v>
+      <c r="F168" s="537" t="s">
+        <v>306</v>
       </c>
       <c r="G168" s="34" t="s">
         <v>263</v>
@@ -28766,8 +30121,8 @@
       <c r="E169" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F169" s="539" t="s">
-        <v>311</v>
+      <c r="F169" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G169" s="34" t="s">
         <v>265</v>
@@ -28837,8 +30192,8 @@
       <c r="E170" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F170" s="539" t="s">
-        <v>311</v>
+      <c r="F170" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G170" s="34" t="s">
         <v>266</v>
@@ -28904,8 +30259,8 @@
       <c r="E171" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F171" s="539" t="s">
-        <v>311</v>
+      <c r="F171" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G171" s="34" t="s">
         <v>228</v>
@@ -28975,8 +30330,8 @@
       <c r="E172" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F172" s="539" t="s">
-        <v>311</v>
+      <c r="F172" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G172" s="34" t="s">
         <v>268</v>
@@ -29042,8 +30397,8 @@
       <c r="E173" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F173" s="539" t="s">
-        <v>311</v>
+      <c r="F173" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G173" s="34" t="s">
         <v>270</v>
@@ -29113,8 +30468,8 @@
       <c r="E174" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F174" s="539" t="s">
-        <v>311</v>
+      <c r="F174" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G174" s="34" t="s">
         <v>272</v>
@@ -29180,8 +30535,8 @@
       <c r="E175" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F175" s="539" t="s">
-        <v>311</v>
+      <c r="F175" s="537" t="s">
+        <v>309</v>
       </c>
       <c r="G175" s="34" t="s">
         <v>156</v>
@@ -31001,7 +32356,7 @@
       <c r="W244" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="46">
     <mergeCell ref="T163:T165"/>
     <mergeCell ref="T167:T168"/>
     <mergeCell ref="T169:T170"/>
@@ -31043,6 +32398,11 @@
     <mergeCell ref="J63:J70"/>
     <mergeCell ref="J71:J75"/>
     <mergeCell ref="J78:J82"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -41389,7 +42749,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="167" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G168" s="206" t="s">
         <v>263</v>
@@ -52404,7 +53764,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="308" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G168" s="308" t="s">
         <v>263</v>
@@ -64965,7 +66325,7 @@
         <v>91</v>
       </c>
       <c r="F168" s="430" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G168" s="430" t="s">
         <v>263</v>
